--- a/misc/CMSC 128 Requirements Traceability Matrix for SHUFFLE (Eulin).xlsx
+++ b/misc/CMSC 128 Requirements Traceability Matrix for SHUFFLE (Eulin).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\projects\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\shuffle\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028EA9A8-120D-4135-998C-5BB47B0F96C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B949B7-B69B-4412-B7DA-473BC30B7377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="2295" windowWidth="14715" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="333">
   <si>
     <t>Requirements Traceability Matrix (Sample Template)</t>
   </si>
@@ -1822,6 +1822,12 @@
   </si>
   <si>
     <t>schema_diagram</t>
+  </si>
+  <si>
+    <t>polished_ui</t>
+  </si>
+  <si>
+    <t>logo for the app and clean user interface</t>
   </si>
 </sst>
 </file>
@@ -2368,62 +2374,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2450,12 +2406,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2674,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC7" zoomScale="58" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AN26" sqref="AN26"/>
+    <sheetView tabSelected="1" topLeftCell="Y9" zoomScale="71" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM20" sqref="AM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2766,10 +2772,10 @@
       <c r="A3" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2794,24 +2800,24 @@
       <c r="A4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -2822,11 +2828,11 @@
       <c r="A5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2850,12 +2856,12 @@
       <c r="A6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2902,13 +2908,13 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2956,15 +2962,15 @@
         <v>4</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -3008,15 +3014,15 @@
         <v>6</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -3299,57 +3305,57 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="68" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="69" t="s">
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="70" t="s">
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="59"/>
-      <c r="AL15" s="59"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="47" t="s">
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="69"/>
+      <c r="AL15" s="69"/>
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AO15" s="48"/>
+      <c r="AO15" s="60"/>
       <c r="AP15" s="10"/>
       <c r="AQ15" s="10"/>
       <c r="AR15" s="10"/>
@@ -3357,47 +3363,47 @@
       <c r="AT15" s="10"/>
     </row>
     <row r="16" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="60"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="60"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="49"/>
-      <c r="AO16" s="50"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="70"/>
+      <c r="AM16" s="62"/>
+      <c r="AN16" s="61"/>
+      <c r="AO16" s="62"/>
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
@@ -3405,53 +3411,53 @@
       <c r="AT16" s="10"/>
     </row>
     <row r="17" spans="1:46" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="53" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="56" t="s">
+      <c r="X17" s="48"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="57" t="s">
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="61"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="61"/>
-      <c r="AK17" s="61"/>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="52"/>
-      <c r="AN17" s="49"/>
-      <c r="AO17" s="50"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="71"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="64"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="62"/>
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
@@ -3459,69 +3465,69 @@
       <c r="AT17" s="10"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="63" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="64" t="s">
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="65" t="s">
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="71" t="s">
+      <c r="P18" s="48"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="72" t="s">
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="72" t="s">
+      <c r="X18" s="48"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="72" t="s">
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="66" t="s">
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="55"/>
-      <c r="AI18" s="66" t="s">
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="55"/>
-      <c r="AL18" s="67" t="s">
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="52"/>
+      <c r="AM18" s="64"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="64"/>
       <c r="AP18" s="10"/>
       <c r="AQ18" s="10"/>
       <c r="AR18" s="10"/>
@@ -3758,12 +3764,12 @@
         <v>306</v>
       </c>
       <c r="AK20" s="18" t="s">
-        <v>106</v>
+        <v>298</v>
       </c>
       <c r="AL20" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="AM20" s="15" t="s">
+      <c r="AM20" s="30" t="s">
         <v>329</v>
       </c>
       <c r="AN20" s="17" t="s">
@@ -4813,8 +4819,12 @@
       <c r="AF32" s="20"/>
       <c r="AG32" s="20"/>
       <c r="AH32" s="20"/>
-      <c r="AI32" s="20"/>
-      <c r="AJ32" s="20"/>
+      <c r="AI32" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="AJ32" s="20" t="s">
+        <v>332</v>
+      </c>
       <c r="AK32" s="20"/>
       <c r="AL32" s="20"/>
       <c r="AM32" s="20"/>
@@ -16793,16 +16803,6 @@
     <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B6:E6"/>
     <mergeCell ref="AN15:AO18"/>
     <mergeCell ref="W17:Y17"/>
     <mergeCell ref="Z17:AB17"/>
@@ -16819,6 +16819,16 @@
     <mergeCell ref="AF15:AM17"/>
     <mergeCell ref="R18:V18"/>
     <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -16830,6 +16840,7 @@
     <hyperlink ref="AA21" r:id="rId6" xr:uid="{1F1D9C93-0B62-4141-9155-0BF56B97D418}"/>
     <hyperlink ref="AD20" r:id="rId7" xr:uid="{11979102-4C6A-4DD8-920A-409D640D74E1}"/>
     <hyperlink ref="AG20" r:id="rId8" xr:uid="{F3612EEF-6515-43FA-9410-0BDE97984233}"/>
+    <hyperlink ref="AM20" r:id="rId9" xr:uid="{1C6FF353-7903-4FB1-B22F-D98D8E8CD6DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -16952,17 +16963,17 @@
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -17452,57 +17463,57 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="68" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="69" t="s">
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="70" t="s">
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="59"/>
-      <c r="AL15" s="59"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="47" t="s">
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="69"/>
+      <c r="AL15" s="69"/>
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="AO15" s="48"/>
+      <c r="AO15" s="60"/>
       <c r="AP15" s="10"/>
       <c r="AQ15" s="10"/>
       <c r="AR15" s="10"/>
@@ -17510,47 +17521,47 @@
       <c r="AT15" s="10"/>
     </row>
     <row r="16" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="60"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="60"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="49"/>
-      <c r="AO16" s="50"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="70"/>
+      <c r="AM16" s="62"/>
+      <c r="AN16" s="61"/>
+      <c r="AO16" s="62"/>
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
@@ -17558,53 +17569,53 @@
       <c r="AT16" s="10"/>
     </row>
     <row r="17" spans="1:46" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="53" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="56" t="s">
+      <c r="X17" s="48"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="57" t="s">
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="61"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="61"/>
-      <c r="AK17" s="61"/>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="52"/>
-      <c r="AN17" s="49"/>
-      <c r="AO17" s="50"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="71"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="64"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="62"/>
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
@@ -17612,69 +17623,69 @@
       <c r="AT17" s="10"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="63" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="64" t="s">
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="65" t="s">
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="71" t="s">
+      <c r="P18" s="48"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="72" t="s">
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="72" t="s">
+      <c r="X18" s="48"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="72" t="s">
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="66" t="s">
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="55"/>
-      <c r="AI18" s="66" t="s">
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="55"/>
-      <c r="AL18" s="67" t="s">
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="52"/>
+      <c r="AM18" s="64"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="64"/>
       <c r="AP18" s="10"/>
       <c r="AQ18" s="10"/>
       <c r="AR18" s="10"/>
@@ -17900,55 +17911,55 @@
       <c r="AT20" s="19"/>
     </row>
     <row r="21" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="85">
+      <c r="E21" s="86">
         <v>44650</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F21" s="81">
         <v>1</v>
       </c>
-      <c r="G21" s="82" t="s">
+      <c r="G21" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="82" t="s">
+      <c r="H21" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="82" t="s">
+      <c r="I21" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="82">
+      <c r="J21" s="81">
         <v>1</v>
       </c>
-      <c r="K21" s="86" t="s">
+      <c r="K21" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="82" t="s">
+      <c r="L21" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M21" s="82" t="s">
+      <c r="M21" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="N21" s="82" t="s">
+      <c r="N21" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="O21" s="82" t="s">
+      <c r="O21" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="P21" s="82" t="s">
+      <c r="P21" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="Q21" s="82" t="s">
+      <c r="Q21" s="81" t="s">
         <v>106</v>
       </c>
       <c r="R21" s="20" t="s">
@@ -17994,23 +18005,23 @@
       <c r="AT21" s="2"/>
     </row>
     <row r="22" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
       <c r="R22" s="20" t="s">
         <v>113</v>
       </c>
@@ -18044,12 +18055,12 @@
       <c r="AT22" s="2"/>
     </row>
     <row r="23" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="20" t="s">
         <v>114</v>
       </c>
@@ -18100,12 +18111,12 @@
       <c r="AT23" s="2"/>
     </row>
     <row r="24" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
       <c r="G24" s="20" t="s">
         <v>117</v>
       </c>
@@ -29353,15 +29364,22 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="AF15:AM17"/>
+    <mergeCell ref="AN15:AO18"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="AI18:AK18"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="G15:V17"/>
+    <mergeCell ref="W15:AE16"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
@@ -29374,22 +29392,15 @@
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A15:F17"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R18:V18"/>
-    <mergeCell ref="G15:V17"/>
-    <mergeCell ref="W15:AE16"/>
-    <mergeCell ref="AF15:AM17"/>
-    <mergeCell ref="AN15:AO18"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/misc/CMSC 128 Requirements Traceability Matrix for SHUFFLE (Eulin).xlsx
+++ b/misc/CMSC 128 Requirements Traceability Matrix for SHUFFLE (Eulin).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\shuffle\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B949B7-B69B-4412-B7DA-473BC30B7377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C3571-5F1D-4056-974F-20239E0BEF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="2295" windowWidth="14715" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="349">
   <si>
     <t>Requirements Traceability Matrix (Sample Template)</t>
   </si>
@@ -1829,6 +1829,54 @@
   <si>
     <t>logo for the app and clean user interface</t>
   </si>
+  <si>
+    <t>config_ui_</t>
+  </si>
+  <si>
+    <t>mem_nav_test</t>
+  </si>
+  <si>
+    <t>mem_ui_test</t>
+  </si>
+  <si>
+    <t>fill_list_ui_test</t>
+  </si>
+  <si>
+    <t>fill_list_logic_test</t>
+  </si>
+  <si>
+    <t>comp_ui_test</t>
+  </si>
+  <si>
+    <t>comp_logic_test</t>
+  </si>
+  <si>
+    <t>std_shuffle_logic_test</t>
+  </si>
+  <si>
+    <t>nl_shuffle_logic_test</t>
+  </si>
+  <si>
+    <t>deck_ds_test</t>
+  </si>
+  <si>
+    <t>prog_logic_test</t>
+  </si>
+  <si>
+    <t>prog_ui_test</t>
+  </si>
+  <si>
+    <t>polished_ui_test</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1PeDh14bQqVsLShnfbeQ1JbiSmwicG1gsVKFPQP0nRq4/edit?usp=sharing</t>
+  </si>
 </sst>
 </file>
 
@@ -1837,7 +1885,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2374,12 +2422,62 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2406,62 +2504,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2680,11 +2728,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y9" zoomScale="71" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM20" sqref="AM20"/>
+    <sheetView tabSelected="1" topLeftCell="N15" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
@@ -2714,7 +2762,7 @@
     <col min="42" max="46" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2740,7 +2788,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2768,14 +2816,14 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:46" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="29.25" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2796,43 +2844,43 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="12.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2852,16 +2900,16 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:46" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="57.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2904,17 +2952,17 @@
       <c r="AS6" s="2"/>
       <c r="AT6" s="2"/>
     </row>
-    <row r="7" spans="1:46" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="76.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2956,21 +3004,21 @@
       <c r="AS7" s="2"/>
       <c r="AT7" s="2"/>
     </row>
-    <row r="8" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="12.75" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -3008,21 +3056,21 @@
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
     </row>
-    <row r="9" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="12.75" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -3060,7 +3108,7 @@
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
     </row>
-    <row r="10" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="12.75" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3108,7 +3156,7 @@
       <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
     </row>
-    <row r="11" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="12.75" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3156,7 +3204,7 @@
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
     </row>
-    <row r="12" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="12.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -3206,7 +3254,7 @@
       <c r="AS12" s="2"/>
       <c r="AT12" s="2"/>
     </row>
-    <row r="13" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" ht="12.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3254,7 +3302,7 @@
       <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
     </row>
-    <row r="14" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" ht="12.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -3304,237 +3352,237 @@
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
     </row>
-    <row r="15" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+    <row r="15" spans="1:46" ht="12.75" customHeight="1">
+      <c r="A15" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="77" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="78" t="s">
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="79" t="s">
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="69"/>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="59" t="s">
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="59"/>
+      <c r="AL15" s="59"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AO15" s="60"/>
+      <c r="AO15" s="48"/>
       <c r="AP15" s="10"/>
       <c r="AQ15" s="10"/>
       <c r="AR15" s="10"/>
       <c r="AS15" s="10"/>
       <c r="AT15" s="10"/>
     </row>
-    <row r="16" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="61"/>
-      <c r="AG16" s="70"/>
-      <c r="AH16" s="70"/>
-      <c r="AI16" s="70"/>
-      <c r="AJ16" s="70"/>
-      <c r="AK16" s="70"/>
-      <c r="AL16" s="70"/>
-      <c r="AM16" s="62"/>
-      <c r="AN16" s="61"/>
-      <c r="AO16" s="62"/>
+    <row r="16" spans="1:46" ht="12.75" customHeight="1">
+      <c r="A16" s="49"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="60"/>
+      <c r="AJ16" s="60"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="60"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="49"/>
+      <c r="AO16" s="50"/>
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
     </row>
-    <row r="17" spans="1:46" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="65" t="s">
+    <row r="17" spans="1:46" ht="26.25" customHeight="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="66" t="s">
+      <c r="X17" s="54"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="67" t="s">
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="63"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="64"/>
-      <c r="AN17" s="61"/>
-      <c r="AO17" s="62"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="61"/>
+      <c r="AM17" s="52"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="50"/>
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+    <row r="18" spans="1:46">
+      <c r="A18" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="73" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="74" t="s">
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="75" t="s">
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="80" t="s">
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="47" t="s">
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="47" t="s">
+      <c r="X18" s="54"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="47" t="s">
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="50" t="s">
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="50" t="s">
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="49"/>
-      <c r="AL18" s="76" t="s">
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="55"/>
+      <c r="AL18" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="63"/>
-      <c r="AO18" s="64"/>
+      <c r="AM18" s="52"/>
+      <c r="AN18" s="51"/>
+      <c r="AO18" s="52"/>
       <c r="AP18" s="10"/>
       <c r="AQ18" s="10"/>
       <c r="AR18" s="10"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
     </row>
-    <row r="19" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="75">
       <c r="A19" s="11" t="s">
         <v>29</v>
       </c>
@@ -3664,7 +3712,7 @@
       <c r="AS19" s="13"/>
       <c r="AT19" s="13"/>
     </row>
-    <row r="20" spans="1:46" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="25.5" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>53</v>
       </c>
@@ -3716,10 +3764,18 @@
       <c r="Q20" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
+      <c r="R20" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="S20" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>346</v>
+      </c>
       <c r="V20" s="15"/>
       <c r="W20" s="15" t="s">
         <v>299</v>
@@ -3782,7 +3838,7 @@
       <c r="AS20" s="19"/>
       <c r="AT20" s="19"/>
     </row>
-    <row r="21" spans="1:46" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="26.25" customHeight="1">
       <c r="A21" s="20" t="s">
         <v>133</v>
       </c>
@@ -3834,10 +3890,18 @@
       <c r="Q21" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
+      <c r="R21" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="S21" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="T21" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>346</v>
+      </c>
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
@@ -3874,7 +3938,7 @@
       <c r="AS21" s="2"/>
       <c r="AT21" s="2"/>
     </row>
-    <row r="22" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="22.5" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>135</v>
       </c>
@@ -3926,10 +3990,18 @@
       <c r="Q22" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
+      <c r="R22" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="S22" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>346</v>
+      </c>
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
@@ -3966,7 +4038,7 @@
       <c r="AS22" s="2"/>
       <c r="AT22" s="2"/>
     </row>
-    <row r="23" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="22.5" customHeight="1">
       <c r="A23" s="20" t="s">
         <v>136</v>
       </c>
@@ -4018,10 +4090,18 @@
       <c r="Q23" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
+      <c r="R23" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="S23" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="T23" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>346</v>
+      </c>
       <c r="V23" s="20"/>
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
@@ -4058,7 +4138,7 @@
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
     </row>
-    <row r="24" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="19.5" customHeight="1">
       <c r="A24" s="20" t="s">
         <v>139</v>
       </c>
@@ -4110,10 +4190,18 @@
       <c r="Q24" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
+      <c r="R24" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="T24" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>346</v>
+      </c>
       <c r="V24" s="20"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
@@ -4150,7 +4238,7 @@
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
     </row>
-    <row r="25" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="19.5" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>141</v>
       </c>
@@ -4196,10 +4284,18 @@
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
       <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
+      <c r="R25" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="S25" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="T25" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="U25" s="15" t="s">
+        <v>346</v>
+      </c>
       <c r="V25" s="20"/>
       <c r="W25" s="20"/>
       <c r="X25" s="20"/>
@@ -4236,7 +4332,7 @@
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
     </row>
-    <row r="26" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="19.5" customHeight="1">
       <c r="A26" s="20" t="s">
         <v>143</v>
       </c>
@@ -4282,10 +4378,18 @@
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
+      <c r="R26" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="S26" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="T26" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>346</v>
+      </c>
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
@@ -4322,7 +4426,7 @@
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
     </row>
-    <row r="27" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="19.5" customHeight="1">
       <c r="A27" s="20" t="s">
         <v>145</v>
       </c>
@@ -4368,10 +4472,18 @@
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
+      <c r="R27" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="S27" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="T27" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>346</v>
+      </c>
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
       <c r="X27" s="20"/>
@@ -4408,7 +4520,7 @@
       <c r="AS27" s="2"/>
       <c r="AT27" s="2"/>
     </row>
-    <row r="28" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="19.5" customHeight="1">
       <c r="A28" s="20" t="s">
         <v>146</v>
       </c>
@@ -4454,10 +4566,18 @@
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
+      <c r="R28" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="S28" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="T28" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>346</v>
+      </c>
       <c r="V28" s="20"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
@@ -4494,7 +4614,7 @@
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
     </row>
-    <row r="29" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" ht="19.5" customHeight="1">
       <c r="A29" s="20" t="s">
         <v>148</v>
       </c>
@@ -4540,10 +4660,18 @@
       <c r="O29" s="26"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
+      <c r="R29" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="S29" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="T29" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>346</v>
+      </c>
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
       <c r="X29" s="20"/>
@@ -4580,7 +4708,7 @@
       <c r="AS29" s="2"/>
       <c r="AT29" s="2"/>
     </row>
-    <row r="30" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" ht="19.5" customHeight="1">
       <c r="A30" s="20" t="s">
         <v>151</v>
       </c>
@@ -4626,10 +4754,18 @@
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
+      <c r="R30" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="S30" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="T30" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="U30" s="15" t="s">
+        <v>346</v>
+      </c>
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
@@ -4666,7 +4802,7 @@
       <c r="AS30" s="2"/>
       <c r="AT30" s="2"/>
     </row>
-    <row r="31" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" ht="19.5" customHeight="1">
       <c r="A31" s="20" t="s">
         <v>153</v>
       </c>
@@ -4712,10 +4848,18 @@
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
       <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
+      <c r="R31" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="S31" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="T31" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="U31" s="15" t="s">
+        <v>346</v>
+      </c>
       <c r="V31" s="20"/>
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
@@ -4752,7 +4896,7 @@
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
     </row>
-    <row r="32" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="19.5" customHeight="1">
       <c r="A32" s="20" t="s">
         <v>154</v>
       </c>
@@ -4798,10 +4942,18 @@
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
+      <c r="R32" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="S32" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="T32" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>346</v>
+      </c>
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
@@ -4836,7 +4988,7 @@
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
     </row>
-    <row r="33" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" ht="19.5" customHeight="1">
       <c r="A33" s="20" t="s">
         <v>157</v>
       </c>
@@ -4916,7 +5068,7 @@
       <c r="AS33" s="2"/>
       <c r="AT33" s="2"/>
     </row>
-    <row r="34" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" ht="19.5" customHeight="1">
       <c r="A34" s="20" t="s">
         <v>159</v>
       </c>
@@ -4996,7 +5148,7 @@
       <c r="AS34" s="2"/>
       <c r="AT34" s="2"/>
     </row>
-    <row r="35" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" ht="19.5" customHeight="1">
       <c r="A35" s="20" t="s">
         <v>160</v>
       </c>
@@ -5076,7 +5228,7 @@
       <c r="AS35" s="2"/>
       <c r="AT35" s="2"/>
     </row>
-    <row r="36" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" ht="19.5" customHeight="1">
       <c r="A36" s="20" t="s">
         <v>163</v>
       </c>
@@ -5156,7 +5308,7 @@
       <c r="AS36" s="2"/>
       <c r="AT36" s="2"/>
     </row>
-    <row r="37" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" ht="19.5" customHeight="1">
       <c r="A37" s="20" t="s">
         <v>165</v>
       </c>
@@ -5236,7 +5388,7 @@
       <c r="AS37" s="2"/>
       <c r="AT37" s="2"/>
     </row>
-    <row r="38" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" ht="19.5" customHeight="1">
       <c r="A38" s="20" t="s">
         <v>168</v>
       </c>
@@ -5316,7 +5468,7 @@
       <c r="AS38" s="2"/>
       <c r="AT38" s="2"/>
     </row>
-    <row r="39" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" ht="19.5" customHeight="1">
       <c r="A39" s="20" t="s">
         <v>199</v>
       </c>
@@ -5396,7 +5548,7 @@
       <c r="AS39" s="2"/>
       <c r="AT39" s="2"/>
     </row>
-    <row r="40" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" ht="19.5" customHeight="1">
       <c r="A40" s="28" t="s">
         <v>200</v>
       </c>
@@ -5476,7 +5628,7 @@
       <c r="AS40" s="2"/>
       <c r="AT40" s="2"/>
     </row>
-    <row r="41" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" ht="19.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -5536,7 +5688,7 @@
       <c r="AS41" s="2"/>
       <c r="AT41" s="2"/>
     </row>
-    <row r="42" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" ht="12.75" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
@@ -5596,7 +5748,7 @@
       <c r="AS42" s="2"/>
       <c r="AT42" s="2"/>
     </row>
-    <row r="43" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" ht="12.75" customHeight="1">
       <c r="A43" s="34"/>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
@@ -5656,7 +5808,7 @@
       <c r="AS43" s="2"/>
       <c r="AT43" s="2"/>
     </row>
-    <row r="44" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" ht="12.75" customHeight="1">
       <c r="A44" s="34"/>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
@@ -5716,7 +5868,7 @@
       <c r="AS44" s="2"/>
       <c r="AT44" s="2"/>
     </row>
-    <row r="45" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" ht="12.75" customHeight="1">
       <c r="A45" s="34"/>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
@@ -5764,7 +5916,7 @@
       <c r="AS45" s="2"/>
       <c r="AT45" s="2"/>
     </row>
-    <row r="46" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" ht="12.75" customHeight="1">
       <c r="A46" s="34"/>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
@@ -5812,7 +5964,7 @@
       <c r="AS46" s="2"/>
       <c r="AT46" s="2"/>
     </row>
-    <row r="47" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" ht="12.75" customHeight="1">
       <c r="A47" s="34"/>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -5855,7 +6007,7 @@
       <c r="AN47" s="34"/>
       <c r="AO47" s="34"/>
     </row>
-    <row r="48" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" ht="12.75" customHeight="1">
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -5897,7 +6049,7 @@
       <c r="AS48" s="2"/>
       <c r="AT48" s="2"/>
     </row>
-    <row r="49" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:46" ht="12.75" customHeight="1">
       <c r="A49" s="21" t="s">
         <v>63</v>
       </c>
@@ -5947,7 +6099,7 @@
       <c r="AS49" s="9"/>
       <c r="AT49" s="9"/>
     </row>
-    <row r="50" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" ht="12.75" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>64</v>
       </c>
@@ -5997,7 +6149,7 @@
       <c r="AS50" s="2"/>
       <c r="AT50" s="2"/>
     </row>
-    <row r="51" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" ht="12.75" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>65</v>
       </c>
@@ -6047,7 +6199,7 @@
       <c r="AS51" s="2"/>
       <c r="AT51" s="2"/>
     </row>
-    <row r="52" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" ht="12.75" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>66</v>
       </c>
@@ -6097,7 +6249,7 @@
       <c r="AS52" s="2"/>
       <c r="AT52" s="2"/>
     </row>
-    <row r="53" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" ht="12.75" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>67</v>
       </c>
@@ -6147,7 +6299,7 @@
       <c r="AS53" s="2"/>
       <c r="AT53" s="2"/>
     </row>
-    <row r="54" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" ht="12.75" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>68</v>
       </c>
@@ -6197,7 +6349,7 @@
       <c r="AS54" s="2"/>
       <c r="AT54" s="2"/>
     </row>
-    <row r="55" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:46" ht="12.75" customHeight="1">
       <c r="A55" s="22" t="s">
         <v>69</v>
       </c>
@@ -6249,7 +6401,7 @@
       <c r="AS55" s="2"/>
       <c r="AT55" s="2"/>
     </row>
-    <row r="56" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:46" ht="12.75" customHeight="1">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -6297,7 +6449,7 @@
       <c r="AS56" s="2"/>
       <c r="AT56" s="2"/>
     </row>
-    <row r="57" spans="1:46" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:46" ht="21" customHeight="1">
       <c r="A57" s="24" t="s">
         <v>119</v>
       </c>
@@ -6349,7 +6501,7 @@
       <c r="AS57" s="2"/>
       <c r="AT57" s="2"/>
     </row>
-    <row r="58" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:46" ht="12.75" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -6397,7 +6549,7 @@
       <c r="AS58" s="2"/>
       <c r="AT58" s="2"/>
     </row>
-    <row r="59" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:46" ht="12.75" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -6445,7 +6597,7 @@
       <c r="AS59" s="2"/>
       <c r="AT59" s="2"/>
     </row>
-    <row r="60" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:46" ht="12.75" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -6493,7 +6645,7 @@
       <c r="AS60" s="2"/>
       <c r="AT60" s="2"/>
     </row>
-    <row r="61" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:46" ht="12.75" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -6541,7 +6693,7 @@
       <c r="AS61" s="2"/>
       <c r="AT61" s="2"/>
     </row>
-    <row r="62" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" ht="12.75" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -6589,7 +6741,7 @@
       <c r="AS62" s="2"/>
       <c r="AT62" s="2"/>
     </row>
-    <row r="63" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" ht="12.75" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -6637,7 +6789,7 @@
       <c r="AS63" s="2"/>
       <c r="AT63" s="2"/>
     </row>
-    <row r="64" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" ht="12.75" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -6685,7 +6837,7 @@
       <c r="AS64" s="2"/>
       <c r="AT64" s="2"/>
     </row>
-    <row r="65" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" ht="12.75" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -6733,7 +6885,7 @@
       <c r="AS65" s="2"/>
       <c r="AT65" s="2"/>
     </row>
-    <row r="66" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" ht="12.75" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -6781,7 +6933,7 @@
       <c r="AS66" s="2"/>
       <c r="AT66" s="2"/>
     </row>
-    <row r="67" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" ht="12.75" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -6829,7 +6981,7 @@
       <c r="AS67" s="2"/>
       <c r="AT67" s="2"/>
     </row>
-    <row r="68" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" ht="12.75" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -6877,7 +7029,7 @@
       <c r="AS68" s="2"/>
       <c r="AT68" s="2"/>
     </row>
-    <row r="69" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" ht="12.75" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -6925,7 +7077,7 @@
       <c r="AS69" s="2"/>
       <c r="AT69" s="2"/>
     </row>
-    <row r="70" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" ht="12.75" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -6973,7 +7125,7 @@
       <c r="AS70" s="2"/>
       <c r="AT70" s="2"/>
     </row>
-    <row r="71" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" ht="12.75" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -7021,7 +7173,7 @@
       <c r="AS71" s="2"/>
       <c r="AT71" s="2"/>
     </row>
-    <row r="72" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" ht="12.75" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -7069,7 +7221,7 @@
       <c r="AS72" s="2"/>
       <c r="AT72" s="2"/>
     </row>
-    <row r="73" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" ht="12.75" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -7117,7 +7269,7 @@
       <c r="AS73" s="2"/>
       <c r="AT73" s="2"/>
     </row>
-    <row r="74" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" ht="12.75" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -7165,7 +7317,7 @@
       <c r="AS74" s="2"/>
       <c r="AT74" s="2"/>
     </row>
-    <row r="75" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" ht="12.75" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -7213,7 +7365,7 @@
       <c r="AS75" s="2"/>
       <c r="AT75" s="2"/>
     </row>
-    <row r="76" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" ht="12.75" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -7261,7 +7413,7 @@
       <c r="AS76" s="2"/>
       <c r="AT76" s="2"/>
     </row>
-    <row r="77" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" ht="12.75" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -7309,7 +7461,7 @@
       <c r="AS77" s="2"/>
       <c r="AT77" s="2"/>
     </row>
-    <row r="78" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" ht="12.75" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -7357,7 +7509,7 @@
       <c r="AS78" s="2"/>
       <c r="AT78" s="2"/>
     </row>
-    <row r="79" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" ht="12.75" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -7405,7 +7557,7 @@
       <c r="AS79" s="2"/>
       <c r="AT79" s="2"/>
     </row>
-    <row r="80" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" ht="12.75" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -7453,7 +7605,7 @@
       <c r="AS80" s="2"/>
       <c r="AT80" s="2"/>
     </row>
-    <row r="81" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" ht="12.75" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -7501,7 +7653,7 @@
       <c r="AS81" s="2"/>
       <c r="AT81" s="2"/>
     </row>
-    <row r="82" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" ht="12.75" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -7549,7 +7701,7 @@
       <c r="AS82" s="2"/>
       <c r="AT82" s="2"/>
     </row>
-    <row r="83" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" ht="12.75" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7597,7 +7749,7 @@
       <c r="AS83" s="2"/>
       <c r="AT83" s="2"/>
     </row>
-    <row r="84" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" ht="12.75" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -7645,7 +7797,7 @@
       <c r="AS84" s="2"/>
       <c r="AT84" s="2"/>
     </row>
-    <row r="85" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" ht="12.75" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -7693,7 +7845,7 @@
       <c r="AS85" s="2"/>
       <c r="AT85" s="2"/>
     </row>
-    <row r="86" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" ht="12.75" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -7741,7 +7893,7 @@
       <c r="AS86" s="2"/>
       <c r="AT86" s="2"/>
     </row>
-    <row r="87" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" ht="12.75" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -7789,7 +7941,7 @@
       <c r="AS87" s="2"/>
       <c r="AT87" s="2"/>
     </row>
-    <row r="88" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" ht="12.75" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -7837,7 +7989,7 @@
       <c r="AS88" s="2"/>
       <c r="AT88" s="2"/>
     </row>
-    <row r="89" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" ht="12.75" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -7885,7 +8037,7 @@
       <c r="AS89" s="2"/>
       <c r="AT89" s="2"/>
     </row>
-    <row r="90" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" ht="12.75" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -7933,7 +8085,7 @@
       <c r="AS90" s="2"/>
       <c r="AT90" s="2"/>
     </row>
-    <row r="91" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" ht="12.75" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -7981,7 +8133,7 @@
       <c r="AS91" s="2"/>
       <c r="AT91" s="2"/>
     </row>
-    <row r="92" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" ht="12.75" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -8029,7 +8181,7 @@
       <c r="AS92" s="2"/>
       <c r="AT92" s="2"/>
     </row>
-    <row r="93" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" ht="12.75" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -8077,7 +8229,7 @@
       <c r="AS93" s="2"/>
       <c r="AT93" s="2"/>
     </row>
-    <row r="94" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" ht="12.75" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -8125,7 +8277,7 @@
       <c r="AS94" s="2"/>
       <c r="AT94" s="2"/>
     </row>
-    <row r="95" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" ht="12.75" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -8173,7 +8325,7 @@
       <c r="AS95" s="2"/>
       <c r="AT95" s="2"/>
     </row>
-    <row r="96" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" ht="12.75" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -8221,7 +8373,7 @@
       <c r="AS96" s="2"/>
       <c r="AT96" s="2"/>
     </row>
-    <row r="97" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46" ht="12.75" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -8269,7 +8421,7 @@
       <c r="AS97" s="2"/>
       <c r="AT97" s="2"/>
     </row>
-    <row r="98" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" ht="12.75" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -8317,7 +8469,7 @@
       <c r="AS98" s="2"/>
       <c r="AT98" s="2"/>
     </row>
-    <row r="99" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" ht="12.75" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -8365,7 +8517,7 @@
       <c r="AS99" s="2"/>
       <c r="AT99" s="2"/>
     </row>
-    <row r="100" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:46" ht="12.75" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -8413,7 +8565,7 @@
       <c r="AS100" s="2"/>
       <c r="AT100" s="2"/>
     </row>
-    <row r="101" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:46" ht="12.75" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -8461,7 +8613,7 @@
       <c r="AS101" s="2"/>
       <c r="AT101" s="2"/>
     </row>
-    <row r="102" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:46" ht="12.75" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -8509,7 +8661,7 @@
       <c r="AS102" s="2"/>
       <c r="AT102" s="2"/>
     </row>
-    <row r="103" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:46" ht="12.75" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -8557,7 +8709,7 @@
       <c r="AS103" s="2"/>
       <c r="AT103" s="2"/>
     </row>
-    <row r="104" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46" ht="12.75" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -8605,7 +8757,7 @@
       <c r="AS104" s="2"/>
       <c r="AT104" s="2"/>
     </row>
-    <row r="105" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" ht="12.75" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -8653,7 +8805,7 @@
       <c r="AS105" s="2"/>
       <c r="AT105" s="2"/>
     </row>
-    <row r="106" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" ht="12.75" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -8701,7 +8853,7 @@
       <c r="AS106" s="2"/>
       <c r="AT106" s="2"/>
     </row>
-    <row r="107" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:46" ht="12.75" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -8749,7 +8901,7 @@
       <c r="AS107" s="2"/>
       <c r="AT107" s="2"/>
     </row>
-    <row r="108" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:46" ht="12.75" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -8797,7 +8949,7 @@
       <c r="AS108" s="2"/>
       <c r="AT108" s="2"/>
     </row>
-    <row r="109" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:46" ht="12.75" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -8845,7 +8997,7 @@
       <c r="AS109" s="2"/>
       <c r="AT109" s="2"/>
     </row>
-    <row r="110" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:46" ht="12.75" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -8893,7 +9045,7 @@
       <c r="AS110" s="2"/>
       <c r="AT110" s="2"/>
     </row>
-    <row r="111" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:46" ht="12.75" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -8941,7 +9093,7 @@
       <c r="AS111" s="2"/>
       <c r="AT111" s="2"/>
     </row>
-    <row r="112" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:46" ht="12.75" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -8989,7 +9141,7 @@
       <c r="AS112" s="2"/>
       <c r="AT112" s="2"/>
     </row>
-    <row r="113" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:46" ht="12.75" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -9037,7 +9189,7 @@
       <c r="AS113" s="2"/>
       <c r="AT113" s="2"/>
     </row>
-    <row r="114" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:46" ht="12.75" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -9085,7 +9237,7 @@
       <c r="AS114" s="2"/>
       <c r="AT114" s="2"/>
     </row>
-    <row r="115" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:46" ht="12.75" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -9133,7 +9285,7 @@
       <c r="AS115" s="2"/>
       <c r="AT115" s="2"/>
     </row>
-    <row r="116" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46" ht="12.75" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -9181,7 +9333,7 @@
       <c r="AS116" s="2"/>
       <c r="AT116" s="2"/>
     </row>
-    <row r="117" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" ht="12.75" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -9229,7 +9381,7 @@
       <c r="AS117" s="2"/>
       <c r="AT117" s="2"/>
     </row>
-    <row r="118" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46" ht="12.75" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -9277,7 +9429,7 @@
       <c r="AS118" s="2"/>
       <c r="AT118" s="2"/>
     </row>
-    <row r="119" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46" ht="12.75" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -9325,7 +9477,7 @@
       <c r="AS119" s="2"/>
       <c r="AT119" s="2"/>
     </row>
-    <row r="120" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:46" ht="12.75" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -9373,7 +9525,7 @@
       <c r="AS120" s="2"/>
       <c r="AT120" s="2"/>
     </row>
-    <row r="121" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46" ht="12.75" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -9421,7 +9573,7 @@
       <c r="AS121" s="2"/>
       <c r="AT121" s="2"/>
     </row>
-    <row r="122" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:46" ht="12.75" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -9469,7 +9621,7 @@
       <c r="AS122" s="2"/>
       <c r="AT122" s="2"/>
     </row>
-    <row r="123" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:46" ht="12.75" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -9517,7 +9669,7 @@
       <c r="AS123" s="2"/>
       <c r="AT123" s="2"/>
     </row>
-    <row r="124" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:46" ht="12.75" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -9565,7 +9717,7 @@
       <c r="AS124" s="2"/>
       <c r="AT124" s="2"/>
     </row>
-    <row r="125" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:46" ht="12.75" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -9613,7 +9765,7 @@
       <c r="AS125" s="2"/>
       <c r="AT125" s="2"/>
     </row>
-    <row r="126" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:46" ht="12.75" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -9661,7 +9813,7 @@
       <c r="AS126" s="2"/>
       <c r="AT126" s="2"/>
     </row>
-    <row r="127" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:46" ht="12.75" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -9709,7 +9861,7 @@
       <c r="AS127" s="2"/>
       <c r="AT127" s="2"/>
     </row>
-    <row r="128" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:46" ht="12.75" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -9757,7 +9909,7 @@
       <c r="AS128" s="2"/>
       <c r="AT128" s="2"/>
     </row>
-    <row r="129" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:46" ht="12.75" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -9805,7 +9957,7 @@
       <c r="AS129" s="2"/>
       <c r="AT129" s="2"/>
     </row>
-    <row r="130" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:46" ht="12.75" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -9853,7 +10005,7 @@
       <c r="AS130" s="2"/>
       <c r="AT130" s="2"/>
     </row>
-    <row r="131" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:46" ht="12.75" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -9901,7 +10053,7 @@
       <c r="AS131" s="2"/>
       <c r="AT131" s="2"/>
     </row>
-    <row r="132" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:46" ht="12.75" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -9949,7 +10101,7 @@
       <c r="AS132" s="2"/>
       <c r="AT132" s="2"/>
     </row>
-    <row r="133" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:46" ht="12.75" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -9997,7 +10149,7 @@
       <c r="AS133" s="2"/>
       <c r="AT133" s="2"/>
     </row>
-    <row r="134" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:46" ht="12.75" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -10045,7 +10197,7 @@
       <c r="AS134" s="2"/>
       <c r="AT134" s="2"/>
     </row>
-    <row r="135" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:46" ht="12.75" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -10093,7 +10245,7 @@
       <c r="AS135" s="2"/>
       <c r="AT135" s="2"/>
     </row>
-    <row r="136" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:46" ht="12.75" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -10141,7 +10293,7 @@
       <c r="AS136" s="2"/>
       <c r="AT136" s="2"/>
     </row>
-    <row r="137" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:46" ht="12.75" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -10189,7 +10341,7 @@
       <c r="AS137" s="2"/>
       <c r="AT137" s="2"/>
     </row>
-    <row r="138" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:46" ht="12.75" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -10237,7 +10389,7 @@
       <c r="AS138" s="2"/>
       <c r="AT138" s="2"/>
     </row>
-    <row r="139" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:46" ht="12.75" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -10285,7 +10437,7 @@
       <c r="AS139" s="2"/>
       <c r="AT139" s="2"/>
     </row>
-    <row r="140" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:46" ht="12.75" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -10333,7 +10485,7 @@
       <c r="AS140" s="2"/>
       <c r="AT140" s="2"/>
     </row>
-    <row r="141" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:46" ht="12.75" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -10381,7 +10533,7 @@
       <c r="AS141" s="2"/>
       <c r="AT141" s="2"/>
     </row>
-    <row r="142" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:46" ht="12.75" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -10429,7 +10581,7 @@
       <c r="AS142" s="2"/>
       <c r="AT142" s="2"/>
     </row>
-    <row r="143" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:46" ht="12.75" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -10477,7 +10629,7 @@
       <c r="AS143" s="2"/>
       <c r="AT143" s="2"/>
     </row>
-    <row r="144" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:46" ht="12.75" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -10525,7 +10677,7 @@
       <c r="AS144" s="2"/>
       <c r="AT144" s="2"/>
     </row>
-    <row r="145" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:46" ht="12.75" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -10573,7 +10725,7 @@
       <c r="AS145" s="2"/>
       <c r="AT145" s="2"/>
     </row>
-    <row r="146" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:46" ht="12.75" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -10621,7 +10773,7 @@
       <c r="AS146" s="2"/>
       <c r="AT146" s="2"/>
     </row>
-    <row r="147" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:46" ht="12.75" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -10669,7 +10821,7 @@
       <c r="AS147" s="2"/>
       <c r="AT147" s="2"/>
     </row>
-    <row r="148" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:46" ht="12.75" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -10717,7 +10869,7 @@
       <c r="AS148" s="2"/>
       <c r="AT148" s="2"/>
     </row>
-    <row r="149" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:46" ht="12.75" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -10765,7 +10917,7 @@
       <c r="AS149" s="2"/>
       <c r="AT149" s="2"/>
     </row>
-    <row r="150" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:46" ht="12.75" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -10813,7 +10965,7 @@
       <c r="AS150" s="2"/>
       <c r="AT150" s="2"/>
     </row>
-    <row r="151" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:46" ht="12.75" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -10861,7 +11013,7 @@
       <c r="AS151" s="2"/>
       <c r="AT151" s="2"/>
     </row>
-    <row r="152" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:46" ht="12.75" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -10909,7 +11061,7 @@
       <c r="AS152" s="2"/>
       <c r="AT152" s="2"/>
     </row>
-    <row r="153" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:46" ht="12.75" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -10957,7 +11109,7 @@
       <c r="AS153" s="2"/>
       <c r="AT153" s="2"/>
     </row>
-    <row r="154" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:46" ht="12.75" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -11005,7 +11157,7 @@
       <c r="AS154" s="2"/>
       <c r="AT154" s="2"/>
     </row>
-    <row r="155" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:46" ht="12.75" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -11053,7 +11205,7 @@
       <c r="AS155" s="2"/>
       <c r="AT155" s="2"/>
     </row>
-    <row r="156" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:46" ht="12.75" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -11101,7 +11253,7 @@
       <c r="AS156" s="2"/>
       <c r="AT156" s="2"/>
     </row>
-    <row r="157" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:46" ht="12.75" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -11149,7 +11301,7 @@
       <c r="AS157" s="2"/>
       <c r="AT157" s="2"/>
     </row>
-    <row r="158" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:46" ht="12.75" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -11197,7 +11349,7 @@
       <c r="AS158" s="2"/>
       <c r="AT158" s="2"/>
     </row>
-    <row r="159" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:46" ht="12.75" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -11245,7 +11397,7 @@
       <c r="AS159" s="2"/>
       <c r="AT159" s="2"/>
     </row>
-    <row r="160" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:46" ht="12.75" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -11293,7 +11445,7 @@
       <c r="AS160" s="2"/>
       <c r="AT160" s="2"/>
     </row>
-    <row r="161" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:46" ht="12.75" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -11341,7 +11493,7 @@
       <c r="AS161" s="2"/>
       <c r="AT161" s="2"/>
     </row>
-    <row r="162" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:46" ht="12.75" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -11389,7 +11541,7 @@
       <c r="AS162" s="2"/>
       <c r="AT162" s="2"/>
     </row>
-    <row r="163" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:46" ht="12.75" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -11437,7 +11589,7 @@
       <c r="AS163" s="2"/>
       <c r="AT163" s="2"/>
     </row>
-    <row r="164" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:46" ht="12.75" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -11485,7 +11637,7 @@
       <c r="AS164" s="2"/>
       <c r="AT164" s="2"/>
     </row>
-    <row r="165" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:46" ht="12.75" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -11533,7 +11685,7 @@
       <c r="AS165" s="2"/>
       <c r="AT165" s="2"/>
     </row>
-    <row r="166" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:46" ht="12.75" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -11581,7 +11733,7 @@
       <c r="AS166" s="2"/>
       <c r="AT166" s="2"/>
     </row>
-    <row r="167" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:46" ht="12.75" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -11629,7 +11781,7 @@
       <c r="AS167" s="2"/>
       <c r="AT167" s="2"/>
     </row>
-    <row r="168" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:46" ht="12.75" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -11677,7 +11829,7 @@
       <c r="AS168" s="2"/>
       <c r="AT168" s="2"/>
     </row>
-    <row r="169" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:46" ht="12.75" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -11725,7 +11877,7 @@
       <c r="AS169" s="2"/>
       <c r="AT169" s="2"/>
     </row>
-    <row r="170" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:46" ht="12.75" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -11773,7 +11925,7 @@
       <c r="AS170" s="2"/>
       <c r="AT170" s="2"/>
     </row>
-    <row r="171" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:46" ht="12.75" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -11821,7 +11973,7 @@
       <c r="AS171" s="2"/>
       <c r="AT171" s="2"/>
     </row>
-    <row r="172" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:46" ht="12.75" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -11869,7 +12021,7 @@
       <c r="AS172" s="2"/>
       <c r="AT172" s="2"/>
     </row>
-    <row r="173" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:46" ht="12.75" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -11917,7 +12069,7 @@
       <c r="AS173" s="2"/>
       <c r="AT173" s="2"/>
     </row>
-    <row r="174" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:46" ht="12.75" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -11965,7 +12117,7 @@
       <c r="AS174" s="2"/>
       <c r="AT174" s="2"/>
     </row>
-    <row r="175" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:46" ht="12.75" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -12013,7 +12165,7 @@
       <c r="AS175" s="2"/>
       <c r="AT175" s="2"/>
     </row>
-    <row r="176" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:46" ht="12.75" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -12061,7 +12213,7 @@
       <c r="AS176" s="2"/>
       <c r="AT176" s="2"/>
     </row>
-    <row r="177" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:46" ht="12.75" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -12109,7 +12261,7 @@
       <c r="AS177" s="2"/>
       <c r="AT177" s="2"/>
     </row>
-    <row r="178" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:46" ht="12.75" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -12157,7 +12309,7 @@
       <c r="AS178" s="2"/>
       <c r="AT178" s="2"/>
     </row>
-    <row r="179" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:46" ht="12.75" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -12205,7 +12357,7 @@
       <c r="AS179" s="2"/>
       <c r="AT179" s="2"/>
     </row>
-    <row r="180" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:46" ht="12.75" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -12253,7 +12405,7 @@
       <c r="AS180" s="2"/>
       <c r="AT180" s="2"/>
     </row>
-    <row r="181" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:46" ht="12.75" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -12301,7 +12453,7 @@
       <c r="AS181" s="2"/>
       <c r="AT181" s="2"/>
     </row>
-    <row r="182" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:46" ht="12.75" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -12349,7 +12501,7 @@
       <c r="AS182" s="2"/>
       <c r="AT182" s="2"/>
     </row>
-    <row r="183" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:46" ht="12.75" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -12397,7 +12549,7 @@
       <c r="AS183" s="2"/>
       <c r="AT183" s="2"/>
     </row>
-    <row r="184" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:46" ht="12.75" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -12445,7 +12597,7 @@
       <c r="AS184" s="2"/>
       <c r="AT184" s="2"/>
     </row>
-    <row r="185" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:46" ht="12.75" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -12493,7 +12645,7 @@
       <c r="AS185" s="2"/>
       <c r="AT185" s="2"/>
     </row>
-    <row r="186" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:46" ht="12.75" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -12541,7 +12693,7 @@
       <c r="AS186" s="2"/>
       <c r="AT186" s="2"/>
     </row>
-    <row r="187" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:46" ht="12.75" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -12589,7 +12741,7 @@
       <c r="AS187" s="2"/>
       <c r="AT187" s="2"/>
     </row>
-    <row r="188" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:46" ht="12.75" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -12637,7 +12789,7 @@
       <c r="AS188" s="2"/>
       <c r="AT188" s="2"/>
     </row>
-    <row r="189" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:46" ht="12.75" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -12685,7 +12837,7 @@
       <c r="AS189" s="2"/>
       <c r="AT189" s="2"/>
     </row>
-    <row r="190" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:46" ht="12.75" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -12733,7 +12885,7 @@
       <c r="AS190" s="2"/>
       <c r="AT190" s="2"/>
     </row>
-    <row r="191" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:46" ht="12.75" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -12781,7 +12933,7 @@
       <c r="AS191" s="2"/>
       <c r="AT191" s="2"/>
     </row>
-    <row r="192" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:46" ht="12.75" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -12829,7 +12981,7 @@
       <c r="AS192" s="2"/>
       <c r="AT192" s="2"/>
     </row>
-    <row r="193" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:46" ht="12.75" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -12877,7 +13029,7 @@
       <c r="AS193" s="2"/>
       <c r="AT193" s="2"/>
     </row>
-    <row r="194" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:46" ht="12.75" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -12925,7 +13077,7 @@
       <c r="AS194" s="2"/>
       <c r="AT194" s="2"/>
     </row>
-    <row r="195" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:46" ht="12.75" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -12973,7 +13125,7 @@
       <c r="AS195" s="2"/>
       <c r="AT195" s="2"/>
     </row>
-    <row r="196" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:46" ht="12.75" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -13021,7 +13173,7 @@
       <c r="AS196" s="2"/>
       <c r="AT196" s="2"/>
     </row>
-    <row r="197" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:46" ht="12.75" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -13069,7 +13221,7 @@
       <c r="AS197" s="2"/>
       <c r="AT197" s="2"/>
     </row>
-    <row r="198" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:46" ht="12.75" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -13117,7 +13269,7 @@
       <c r="AS198" s="2"/>
       <c r="AT198" s="2"/>
     </row>
-    <row r="199" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:46" ht="12.75" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -13165,7 +13317,7 @@
       <c r="AS199" s="2"/>
       <c r="AT199" s="2"/>
     </row>
-    <row r="200" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:46" ht="12.75" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -13213,7 +13365,7 @@
       <c r="AS200" s="2"/>
       <c r="AT200" s="2"/>
     </row>
-    <row r="201" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:46" ht="12.75" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -13261,7 +13413,7 @@
       <c r="AS201" s="2"/>
       <c r="AT201" s="2"/>
     </row>
-    <row r="202" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:46" ht="12.75" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -13309,7 +13461,7 @@
       <c r="AS202" s="2"/>
       <c r="AT202" s="2"/>
     </row>
-    <row r="203" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:46" ht="12.75" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -13357,7 +13509,7 @@
       <c r="AS203" s="2"/>
       <c r="AT203" s="2"/>
     </row>
-    <row r="204" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:46" ht="12.75" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -13405,7 +13557,7 @@
       <c r="AS204" s="2"/>
       <c r="AT204" s="2"/>
     </row>
-    <row r="205" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:46" ht="12.75" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -13453,7 +13605,7 @@
       <c r="AS205" s="2"/>
       <c r="AT205" s="2"/>
     </row>
-    <row r="206" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:46" ht="12.75" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -13501,7 +13653,7 @@
       <c r="AS206" s="2"/>
       <c r="AT206" s="2"/>
     </row>
-    <row r="207" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:46" ht="12.75" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -13549,7 +13701,7 @@
       <c r="AS207" s="2"/>
       <c r="AT207" s="2"/>
     </row>
-    <row r="208" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:46" ht="12.75" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -13597,7 +13749,7 @@
       <c r="AS208" s="2"/>
       <c r="AT208" s="2"/>
     </row>
-    <row r="209" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:46" ht="12.75" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -13645,7 +13797,7 @@
       <c r="AS209" s="2"/>
       <c r="AT209" s="2"/>
     </row>
-    <row r="210" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:46" ht="12.75" customHeight="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -13693,7 +13845,7 @@
       <c r="AS210" s="2"/>
       <c r="AT210" s="2"/>
     </row>
-    <row r="211" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:46" ht="12.75" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -13741,7 +13893,7 @@
       <c r="AS211" s="2"/>
       <c r="AT211" s="2"/>
     </row>
-    <row r="212" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:46" ht="12.75" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -13789,7 +13941,7 @@
       <c r="AS212" s="2"/>
       <c r="AT212" s="2"/>
     </row>
-    <row r="213" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:46" ht="12.75" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -13837,7 +13989,7 @@
       <c r="AS213" s="2"/>
       <c r="AT213" s="2"/>
     </row>
-    <row r="214" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:46" ht="12.75" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -13885,7 +14037,7 @@
       <c r="AS214" s="2"/>
       <c r="AT214" s="2"/>
     </row>
-    <row r="215" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:46" ht="12.75" customHeight="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -13933,7 +14085,7 @@
       <c r="AS215" s="2"/>
       <c r="AT215" s="2"/>
     </row>
-    <row r="216" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:46" ht="12.75" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -13981,7 +14133,7 @@
       <c r="AS216" s="2"/>
       <c r="AT216" s="2"/>
     </row>
-    <row r="217" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:46" ht="12.75" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -14029,7 +14181,7 @@
       <c r="AS217" s="2"/>
       <c r="AT217" s="2"/>
     </row>
-    <row r="218" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:46" ht="12.75" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -14077,7 +14229,7 @@
       <c r="AS218" s="2"/>
       <c r="AT218" s="2"/>
     </row>
-    <row r="219" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:46" ht="12.75" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -14125,7 +14277,7 @@
       <c r="AS219" s="2"/>
       <c r="AT219" s="2"/>
     </row>
-    <row r="220" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:46" ht="12.75" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -14173,7 +14325,7 @@
       <c r="AS220" s="2"/>
       <c r="AT220" s="2"/>
     </row>
-    <row r="221" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:46" ht="12.75" customHeight="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -14221,7 +14373,7 @@
       <c r="AS221" s="2"/>
       <c r="AT221" s="2"/>
     </row>
-    <row r="222" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:46" ht="12.75" customHeight="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -14269,7 +14421,7 @@
       <c r="AS222" s="2"/>
       <c r="AT222" s="2"/>
     </row>
-    <row r="223" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:46" ht="12.75" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -14317,7 +14469,7 @@
       <c r="AS223" s="2"/>
       <c r="AT223" s="2"/>
     </row>
-    <row r="224" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:46" ht="12.75" customHeight="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -14365,7 +14517,7 @@
       <c r="AS224" s="2"/>
       <c r="AT224" s="2"/>
     </row>
-    <row r="225" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:46" ht="12.75" customHeight="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -14413,7 +14565,7 @@
       <c r="AS225" s="2"/>
       <c r="AT225" s="2"/>
     </row>
-    <row r="226" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:46" ht="12.75" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -14461,7 +14613,7 @@
       <c r="AS226" s="2"/>
       <c r="AT226" s="2"/>
     </row>
-    <row r="227" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:46" ht="12.75" customHeight="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -14509,7 +14661,7 @@
       <c r="AS227" s="2"/>
       <c r="AT227" s="2"/>
     </row>
-    <row r="228" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:46" ht="12.75" customHeight="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -14557,7 +14709,7 @@
       <c r="AS228" s="2"/>
       <c r="AT228" s="2"/>
     </row>
-    <row r="229" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:46" ht="12.75" customHeight="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -14605,7 +14757,7 @@
       <c r="AS229" s="2"/>
       <c r="AT229" s="2"/>
     </row>
-    <row r="230" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:46" ht="12.75" customHeight="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -14653,7 +14805,7 @@
       <c r="AS230" s="2"/>
       <c r="AT230" s="2"/>
     </row>
-    <row r="231" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:46" ht="12.75" customHeight="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -14701,7 +14853,7 @@
       <c r="AS231" s="2"/>
       <c r="AT231" s="2"/>
     </row>
-    <row r="232" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:46" ht="12.75" customHeight="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -14749,7 +14901,7 @@
       <c r="AS232" s="2"/>
       <c r="AT232" s="2"/>
     </row>
-    <row r="233" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:46" ht="12.75" customHeight="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -14797,7 +14949,7 @@
       <c r="AS233" s="2"/>
       <c r="AT233" s="2"/>
     </row>
-    <row r="234" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:46" ht="12.75" customHeight="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -14845,7 +14997,7 @@
       <c r="AS234" s="2"/>
       <c r="AT234" s="2"/>
     </row>
-    <row r="235" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:46" ht="12.75" customHeight="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -14893,7 +15045,7 @@
       <c r="AS235" s="2"/>
       <c r="AT235" s="2"/>
     </row>
-    <row r="236" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:46" ht="12.75" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -14941,7 +15093,7 @@
       <c r="AS236" s="2"/>
       <c r="AT236" s="2"/>
     </row>
-    <row r="237" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:46" ht="12.75" customHeight="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -14989,7 +15141,7 @@
       <c r="AS237" s="2"/>
       <c r="AT237" s="2"/>
     </row>
-    <row r="238" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:46" ht="12.75" customHeight="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -15037,7 +15189,7 @@
       <c r="AS238" s="2"/>
       <c r="AT238" s="2"/>
     </row>
-    <row r="239" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:46" ht="12.75" customHeight="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -15085,7 +15237,7 @@
       <c r="AS239" s="2"/>
       <c r="AT239" s="2"/>
     </row>
-    <row r="240" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:46" ht="12.75" customHeight="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -15133,7 +15285,7 @@
       <c r="AS240" s="2"/>
       <c r="AT240" s="2"/>
     </row>
-    <row r="241" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:46" ht="12.75" customHeight="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -15181,7 +15333,7 @@
       <c r="AS241" s="2"/>
       <c r="AT241" s="2"/>
     </row>
-    <row r="242" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:46" ht="12.75" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -15229,7 +15381,7 @@
       <c r="AS242" s="2"/>
       <c r="AT242" s="2"/>
     </row>
-    <row r="243" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:46" ht="12.75" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -15277,7 +15429,7 @@
       <c r="AS243" s="2"/>
       <c r="AT243" s="2"/>
     </row>
-    <row r="244" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:46" ht="12.75" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -15325,7 +15477,7 @@
       <c r="AS244" s="2"/>
       <c r="AT244" s="2"/>
     </row>
-    <row r="245" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:46" ht="12.75" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -15373,7 +15525,7 @@
       <c r="AS245" s="2"/>
       <c r="AT245" s="2"/>
     </row>
-    <row r="246" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:46" ht="12.75" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -15421,7 +15573,7 @@
       <c r="AS246" s="2"/>
       <c r="AT246" s="2"/>
     </row>
-    <row r="247" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:46" ht="12.75" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -15469,7 +15621,7 @@
       <c r="AS247" s="2"/>
       <c r="AT247" s="2"/>
     </row>
-    <row r="248" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:46" ht="12.75" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -15517,7 +15669,7 @@
       <c r="AS248" s="2"/>
       <c r="AT248" s="2"/>
     </row>
-    <row r="249" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:46" ht="12.75" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -15565,7 +15717,7 @@
       <c r="AS249" s="2"/>
       <c r="AT249" s="2"/>
     </row>
-    <row r="250" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:46" ht="12.75" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -15613,7 +15765,7 @@
       <c r="AS250" s="2"/>
       <c r="AT250" s="2"/>
     </row>
-    <row r="251" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:46" ht="12.75" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -15661,7 +15813,7 @@
       <c r="AS251" s="2"/>
       <c r="AT251" s="2"/>
     </row>
-    <row r="252" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:46" ht="12.75" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -15709,7 +15861,7 @@
       <c r="AS252" s="2"/>
       <c r="AT252" s="2"/>
     </row>
-    <row r="253" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:46" ht="12.75" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -15757,7 +15909,7 @@
       <c r="AS253" s="2"/>
       <c r="AT253" s="2"/>
     </row>
-    <row r="254" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:46" ht="12.75" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -15805,7 +15957,7 @@
       <c r="AS254" s="2"/>
       <c r="AT254" s="2"/>
     </row>
-    <row r="255" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:46" ht="12.75" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -15853,7 +16005,7 @@
       <c r="AS255" s="2"/>
       <c r="AT255" s="2"/>
     </row>
-    <row r="256" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:46" ht="12.75" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -15901,7 +16053,7 @@
       <c r="AS256" s="2"/>
       <c r="AT256" s="2"/>
     </row>
-    <row r="257" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:46" ht="12.75" customHeight="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -15949,7 +16101,7 @@
       <c r="AS257" s="2"/>
       <c r="AT257" s="2"/>
     </row>
-    <row r="258" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:46" ht="12.75" customHeight="1">
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
@@ -15992,7 +16144,7 @@
       <c r="AS258" s="2"/>
       <c r="AT258" s="2"/>
     </row>
-    <row r="259" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:46" ht="12.75" customHeight="1">
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
@@ -16035,774 +16187,784 @@
       <c r="AS259" s="2"/>
       <c r="AT259" s="2"/>
     </row>
-    <row r="260" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:46" ht="15.75" customHeight="1">
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
     </row>
-    <row r="261" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:46" ht="15.75" customHeight="1">
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
     </row>
-    <row r="262" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="263" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="264" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="265" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="266" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="267" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="268" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="269" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="270" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="271" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="272" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
+    <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
+    <row r="1017" ht="15.75" customHeight="1"/>
+    <row r="1018" ht="15.75" customHeight="1"/>
+    <row r="1019" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="AN15:AO18"/>
     <mergeCell ref="W17:Y17"/>
     <mergeCell ref="Z17:AB17"/>
@@ -16819,16 +16981,6 @@
     <mergeCell ref="AF15:AM17"/>
     <mergeCell ref="R18:V18"/>
     <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -16841,6 +16993,8 @@
     <hyperlink ref="AD20" r:id="rId7" xr:uid="{11979102-4C6A-4DD8-920A-409D640D74E1}"/>
     <hyperlink ref="AG20" r:id="rId8" xr:uid="{F3612EEF-6515-43FA-9410-0BDE97984233}"/>
     <hyperlink ref="AM20" r:id="rId9" xr:uid="{1C6FF353-7903-4FB1-B22F-D98D8E8CD6DD}"/>
+    <hyperlink ref="S20" r:id="rId10" xr:uid="{DBCE3735-7FB8-486F-BF03-B473F00B790D}"/>
+    <hyperlink ref="S21:S32" r:id="rId11" display="https://docs.google.com/spreadsheets/d/1PeDh14bQqVsLShnfbeQ1JbiSmwicG1gsVKFPQP0nRq4/edit?usp=sharing" xr:uid="{839A3CAF-6426-4995-B129-62D04F04B535}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -16855,7 +17009,7 @@
       <selection activeCell="K21" sqref="K21:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="5" width="12.140625" customWidth="1"/>
@@ -16882,7 +17036,7 @@
     <col min="42" max="46" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16908,7 +17062,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -16936,7 +17090,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="12.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
@@ -16962,18 +17116,18 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+    <row r="4" spans="1:46" ht="12.75" customHeight="1">
+      <c r="A4" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -16988,7 +17142,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>75</v>
       </c>
@@ -17014,7 +17168,7 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="12.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>76</v>
       </c>
@@ -17064,7 +17218,7 @@
       <c r="AS6" s="2"/>
       <c r="AT6" s="2"/>
     </row>
-    <row r="7" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="12.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -17114,7 +17268,7 @@
       <c r="AS7" s="2"/>
       <c r="AT7" s="2"/>
     </row>
-    <row r="8" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="12.75" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
@@ -17166,7 +17320,7 @@
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
     </row>
-    <row r="9" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="12.75" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -17218,7 +17372,7 @@
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
     </row>
-    <row r="10" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="12.75" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -17266,7 +17420,7 @@
       <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
     </row>
-    <row r="11" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="12.75" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -17314,7 +17468,7 @@
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
     </row>
-    <row r="12" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="12.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -17364,7 +17518,7 @@
       <c r="AS12" s="2"/>
       <c r="AT12" s="2"/>
     </row>
-    <row r="13" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" ht="12.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -17412,7 +17566,7 @@
       <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
     </row>
-    <row r="14" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" ht="12.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -17462,237 +17616,237 @@
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
     </row>
-    <row r="15" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+    <row r="15" spans="1:46" ht="12.75" customHeight="1">
+      <c r="A15" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="77" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="78" t="s">
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="79" t="s">
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="69"/>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="59" t="s">
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="59"/>
+      <c r="AL15" s="59"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="AO15" s="60"/>
+      <c r="AO15" s="48"/>
       <c r="AP15" s="10"/>
       <c r="AQ15" s="10"/>
       <c r="AR15" s="10"/>
       <c r="AS15" s="10"/>
       <c r="AT15" s="10"/>
     </row>
-    <row r="16" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="61"/>
-      <c r="AG16" s="70"/>
-      <c r="AH16" s="70"/>
-      <c r="AI16" s="70"/>
-      <c r="AJ16" s="70"/>
-      <c r="AK16" s="70"/>
-      <c r="AL16" s="70"/>
-      <c r="AM16" s="62"/>
-      <c r="AN16" s="61"/>
-      <c r="AO16" s="62"/>
+    <row r="16" spans="1:46" ht="12.75" customHeight="1">
+      <c r="A16" s="49"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="60"/>
+      <c r="AJ16" s="60"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="60"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="49"/>
+      <c r="AO16" s="50"/>
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
     </row>
-    <row r="17" spans="1:46" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="65" t="s">
+    <row r="17" spans="1:46" ht="26.25" customHeight="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="66" t="s">
+      <c r="X17" s="54"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="67" t="s">
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="63"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="64"/>
-      <c r="AN17" s="61"/>
-      <c r="AO17" s="62"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="61"/>
+      <c r="AM17" s="52"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="50"/>
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+    <row r="18" spans="1:46">
+      <c r="A18" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="73" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="74" t="s">
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="75" t="s">
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="80" t="s">
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="47" t="s">
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="47" t="s">
+      <c r="X18" s="54"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="47" t="s">
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="50" t="s">
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="50" t="s">
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="49"/>
-      <c r="AL18" s="76" t="s">
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="55"/>
+      <c r="AL18" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="63"/>
-      <c r="AO18" s="64"/>
+      <c r="AM18" s="52"/>
+      <c r="AN18" s="51"/>
+      <c r="AO18" s="52"/>
       <c r="AP18" s="10"/>
       <c r="AQ18" s="10"/>
       <c r="AR18" s="10"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
     </row>
-    <row r="19" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="75">
       <c r="A19" s="11" t="s">
         <v>29</v>
       </c>
@@ -17822,7 +17976,7 @@
       <c r="AS19" s="13"/>
       <c r="AT19" s="13"/>
     </row>
-    <row r="20" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="12.75" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>53</v>
       </c>
@@ -17910,56 +18064,56 @@
       <c r="AS20" s="19"/>
       <c r="AT20" s="19"/>
     </row>
-    <row r="21" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+    <row r="21" spans="1:46" ht="12.75" customHeight="1">
+      <c r="A21" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="86">
+      <c r="E21" s="85">
         <v>44650</v>
       </c>
-      <c r="F21" s="81">
+      <c r="F21" s="82">
         <v>1</v>
       </c>
-      <c r="G21" s="81" t="s">
+      <c r="G21" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="81" t="s">
+      <c r="H21" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="81" t="s">
+      <c r="I21" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="81">
+      <c r="J21" s="82">
         <v>1</v>
       </c>
-      <c r="K21" s="83" t="s">
+      <c r="K21" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="81" t="s">
+      <c r="L21" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="M21" s="81" t="s">
+      <c r="M21" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="N21" s="81" t="s">
+      <c r="N21" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="O21" s="81" t="s">
+      <c r="O21" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="P21" s="81" t="s">
+      <c r="P21" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="Q21" s="81" t="s">
+      <c r="Q21" s="82" t="s">
         <v>106</v>
       </c>
       <c r="R21" s="20" t="s">
@@ -18004,24 +18158,24 @@
       <c r="AS21" s="2"/>
       <c r="AT21" s="2"/>
     </row>
-    <row r="22" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
+    <row r="22" spans="1:46" ht="12.75" customHeight="1">
+      <c r="A22" s="84"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
       <c r="R22" s="20" t="s">
         <v>113</v>
       </c>
@@ -18054,13 +18208,13 @@
       <c r="AS22" s="2"/>
       <c r="AT22" s="2"/>
     </row>
-    <row r="23" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
+    <row r="23" spans="1:46" ht="12.75" customHeight="1">
+      <c r="A23" s="84"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
       <c r="G23" s="20" t="s">
         <v>114</v>
       </c>
@@ -18110,13 +18264,13 @@
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
     </row>
-    <row r="24" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
+    <row r="24" spans="1:46" ht="12.75" customHeight="1">
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
       <c r="G24" s="20" t="s">
         <v>117</v>
       </c>
@@ -18166,7 +18320,7 @@
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
     </row>
-    <row r="25" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="12.75" customHeight="1">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -18214,7 +18368,7 @@
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
     </row>
-    <row r="26" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="12.75" customHeight="1">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -18262,7 +18416,7 @@
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
     </row>
-    <row r="27" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="12.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -18310,7 +18464,7 @@
       <c r="AS27" s="2"/>
       <c r="AT27" s="2"/>
     </row>
-    <row r="28" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="12.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -18358,7 +18512,7 @@
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
     </row>
-    <row r="29" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" ht="12.75" customHeight="1">
       <c r="A29" s="21" t="s">
         <v>63</v>
       </c>
@@ -18408,7 +18562,7 @@
       <c r="AS29" s="9"/>
       <c r="AT29" s="9"/>
     </row>
-    <row r="30" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" ht="12.75" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>64</v>
       </c>
@@ -18458,7 +18612,7 @@
       <c r="AS30" s="2"/>
       <c r="AT30" s="2"/>
     </row>
-    <row r="31" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" ht="12.75" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>65</v>
       </c>
@@ -18508,7 +18662,7 @@
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
     </row>
-    <row r="32" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="12.75" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -18558,7 +18712,7 @@
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
     </row>
-    <row r="33" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" ht="12.75" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>67</v>
       </c>
@@ -18608,7 +18762,7 @@
       <c r="AS33" s="2"/>
       <c r="AT33" s="2"/>
     </row>
-    <row r="34" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" ht="12.75" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>68</v>
       </c>
@@ -18658,7 +18812,7 @@
       <c r="AS34" s="2"/>
       <c r="AT34" s="2"/>
     </row>
-    <row r="35" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" ht="12.75" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -18706,7 +18860,7 @@
       <c r="AS35" s="2"/>
       <c r="AT35" s="2"/>
     </row>
-    <row r="36" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:46" ht="12.75" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -18754,7 +18908,7 @@
       <c r="AS36" s="2"/>
       <c r="AT36" s="2"/>
     </row>
-    <row r="37" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:46" ht="12.75" customHeight="1">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -18802,7 +18956,7 @@
       <c r="AS37" s="2"/>
       <c r="AT37" s="2"/>
     </row>
-    <row r="38" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" ht="12.75" customHeight="1">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -18850,7 +19004,7 @@
       <c r="AS38" s="2"/>
       <c r="AT38" s="2"/>
     </row>
-    <row r="39" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" ht="12.75" customHeight="1">
       <c r="A39" s="22" t="s">
         <v>69</v>
       </c>
@@ -18902,7 +19056,7 @@
       <c r="AS39" s="2"/>
       <c r="AT39" s="2"/>
     </row>
-    <row r="40" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" ht="12.75" customHeight="1">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -18950,7 +19104,7 @@
       <c r="AS40" s="2"/>
       <c r="AT40" s="2"/>
     </row>
-    <row r="41" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:46" ht="12.75" customHeight="1">
       <c r="A41" s="22" t="s">
         <v>2</v>
       </c>
@@ -19002,7 +19156,7 @@
       <c r="AS41" s="2"/>
       <c r="AT41" s="2"/>
     </row>
-    <row r="42" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" ht="12.75" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -19050,7 +19204,7 @@
       <c r="AS42" s="2"/>
       <c r="AT42" s="2"/>
     </row>
-    <row r="43" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" ht="12.75" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -19098,7 +19252,7 @@
       <c r="AS43" s="2"/>
       <c r="AT43" s="2"/>
     </row>
-    <row r="44" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" ht="12.75" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -19146,7 +19300,7 @@
       <c r="AS44" s="2"/>
       <c r="AT44" s="2"/>
     </row>
-    <row r="45" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" ht="12.75" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -19194,7 +19348,7 @@
       <c r="AS45" s="2"/>
       <c r="AT45" s="2"/>
     </row>
-    <row r="46" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" ht="12.75" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -19242,7 +19396,7 @@
       <c r="AS46" s="2"/>
       <c r="AT46" s="2"/>
     </row>
-    <row r="47" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" ht="12.75" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -19290,7 +19444,7 @@
       <c r="AS47" s="2"/>
       <c r="AT47" s="2"/>
     </row>
-    <row r="48" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" ht="12.75" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -19338,7 +19492,7 @@
       <c r="AS48" s="2"/>
       <c r="AT48" s="2"/>
     </row>
-    <row r="49" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" ht="12.75" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -19386,7 +19540,7 @@
       <c r="AS49" s="2"/>
       <c r="AT49" s="2"/>
     </row>
-    <row r="50" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" ht="12.75" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -19434,7 +19588,7 @@
       <c r="AS50" s="2"/>
       <c r="AT50" s="2"/>
     </row>
-    <row r="51" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" ht="12.75" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -19482,7 +19636,7 @@
       <c r="AS51" s="2"/>
       <c r="AT51" s="2"/>
     </row>
-    <row r="52" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" ht="12.75" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -19530,7 +19684,7 @@
       <c r="AS52" s="2"/>
       <c r="AT52" s="2"/>
     </row>
-    <row r="53" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" ht="12.75" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -19578,7 +19732,7 @@
       <c r="AS53" s="2"/>
       <c r="AT53" s="2"/>
     </row>
-    <row r="54" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" ht="12.75" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -19626,7 +19780,7 @@
       <c r="AS54" s="2"/>
       <c r="AT54" s="2"/>
     </row>
-    <row r="55" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" ht="12.75" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -19674,7 +19828,7 @@
       <c r="AS55" s="2"/>
       <c r="AT55" s="2"/>
     </row>
-    <row r="56" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" ht="12.75" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -19722,7 +19876,7 @@
       <c r="AS56" s="2"/>
       <c r="AT56" s="2"/>
     </row>
-    <row r="57" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" ht="12.75" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -19770,7 +19924,7 @@
       <c r="AS57" s="2"/>
       <c r="AT57" s="2"/>
     </row>
-    <row r="58" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" ht="12.75" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -19818,7 +19972,7 @@
       <c r="AS58" s="2"/>
       <c r="AT58" s="2"/>
     </row>
-    <row r="59" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" ht="12.75" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -19866,7 +20020,7 @@
       <c r="AS59" s="2"/>
       <c r="AT59" s="2"/>
     </row>
-    <row r="60" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" ht="12.75" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -19914,7 +20068,7 @@
       <c r="AS60" s="2"/>
       <c r="AT60" s="2"/>
     </row>
-    <row r="61" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" ht="12.75" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -19962,7 +20116,7 @@
       <c r="AS61" s="2"/>
       <c r="AT61" s="2"/>
     </row>
-    <row r="62" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" ht="12.75" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -20010,7 +20164,7 @@
       <c r="AS62" s="2"/>
       <c r="AT62" s="2"/>
     </row>
-    <row r="63" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" ht="12.75" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -20058,7 +20212,7 @@
       <c r="AS63" s="2"/>
       <c r="AT63" s="2"/>
     </row>
-    <row r="64" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" ht="12.75" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -20106,7 +20260,7 @@
       <c r="AS64" s="2"/>
       <c r="AT64" s="2"/>
     </row>
-    <row r="65" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" ht="12.75" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -20154,7 +20308,7 @@
       <c r="AS65" s="2"/>
       <c r="AT65" s="2"/>
     </row>
-    <row r="66" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" ht="12.75" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -20202,7 +20356,7 @@
       <c r="AS66" s="2"/>
       <c r="AT66" s="2"/>
     </row>
-    <row r="67" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" ht="12.75" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -20250,7 +20404,7 @@
       <c r="AS67" s="2"/>
       <c r="AT67" s="2"/>
     </row>
-    <row r="68" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" ht="12.75" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -20298,7 +20452,7 @@
       <c r="AS68" s="2"/>
       <c r="AT68" s="2"/>
     </row>
-    <row r="69" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" ht="12.75" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -20346,7 +20500,7 @@
       <c r="AS69" s="2"/>
       <c r="AT69" s="2"/>
     </row>
-    <row r="70" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" ht="12.75" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -20394,7 +20548,7 @@
       <c r="AS70" s="2"/>
       <c r="AT70" s="2"/>
     </row>
-    <row r="71" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" ht="12.75" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -20442,7 +20596,7 @@
       <c r="AS71" s="2"/>
       <c r="AT71" s="2"/>
     </row>
-    <row r="72" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" ht="12.75" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -20490,7 +20644,7 @@
       <c r="AS72" s="2"/>
       <c r="AT72" s="2"/>
     </row>
-    <row r="73" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" ht="12.75" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -20538,7 +20692,7 @@
       <c r="AS73" s="2"/>
       <c r="AT73" s="2"/>
     </row>
-    <row r="74" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" ht="12.75" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -20586,7 +20740,7 @@
       <c r="AS74" s="2"/>
       <c r="AT74" s="2"/>
     </row>
-    <row r="75" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" ht="12.75" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -20634,7 +20788,7 @@
       <c r="AS75" s="2"/>
       <c r="AT75" s="2"/>
     </row>
-    <row r="76" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" ht="12.75" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -20682,7 +20836,7 @@
       <c r="AS76" s="2"/>
       <c r="AT76" s="2"/>
     </row>
-    <row r="77" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" ht="12.75" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -20730,7 +20884,7 @@
       <c r="AS77" s="2"/>
       <c r="AT77" s="2"/>
     </row>
-    <row r="78" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" ht="12.75" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -20778,7 +20932,7 @@
       <c r="AS78" s="2"/>
       <c r="AT78" s="2"/>
     </row>
-    <row r="79" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" ht="12.75" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -20826,7 +20980,7 @@
       <c r="AS79" s="2"/>
       <c r="AT79" s="2"/>
     </row>
-    <row r="80" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" ht="12.75" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -20874,7 +21028,7 @@
       <c r="AS80" s="2"/>
       <c r="AT80" s="2"/>
     </row>
-    <row r="81" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" ht="12.75" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -20922,7 +21076,7 @@
       <c r="AS81" s="2"/>
       <c r="AT81" s="2"/>
     </row>
-    <row r="82" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" ht="12.75" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -20970,7 +21124,7 @@
       <c r="AS82" s="2"/>
       <c r="AT82" s="2"/>
     </row>
-    <row r="83" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" ht="12.75" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -21018,7 +21172,7 @@
       <c r="AS83" s="2"/>
       <c r="AT83" s="2"/>
     </row>
-    <row r="84" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" ht="12.75" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -21066,7 +21220,7 @@
       <c r="AS84" s="2"/>
       <c r="AT84" s="2"/>
     </row>
-    <row r="85" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" ht="12.75" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -21114,7 +21268,7 @@
       <c r="AS85" s="2"/>
       <c r="AT85" s="2"/>
     </row>
-    <row r="86" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" ht="12.75" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -21162,7 +21316,7 @@
       <c r="AS86" s="2"/>
       <c r="AT86" s="2"/>
     </row>
-    <row r="87" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" ht="12.75" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -21210,7 +21364,7 @@
       <c r="AS87" s="2"/>
       <c r="AT87" s="2"/>
     </row>
-    <row r="88" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" ht="12.75" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -21258,7 +21412,7 @@
       <c r="AS88" s="2"/>
       <c r="AT88" s="2"/>
     </row>
-    <row r="89" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" ht="12.75" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -21306,7 +21460,7 @@
       <c r="AS89" s="2"/>
       <c r="AT89" s="2"/>
     </row>
-    <row r="90" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" ht="12.75" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -21354,7 +21508,7 @@
       <c r="AS90" s="2"/>
       <c r="AT90" s="2"/>
     </row>
-    <row r="91" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" ht="12.75" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -21402,7 +21556,7 @@
       <c r="AS91" s="2"/>
       <c r="AT91" s="2"/>
     </row>
-    <row r="92" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" ht="12.75" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -21450,7 +21604,7 @@
       <c r="AS92" s="2"/>
       <c r="AT92" s="2"/>
     </row>
-    <row r="93" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" ht="12.75" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -21498,7 +21652,7 @@
       <c r="AS93" s="2"/>
       <c r="AT93" s="2"/>
     </row>
-    <row r="94" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" ht="12.75" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -21546,7 +21700,7 @@
       <c r="AS94" s="2"/>
       <c r="AT94" s="2"/>
     </row>
-    <row r="95" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" ht="12.75" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -21594,7 +21748,7 @@
       <c r="AS95" s="2"/>
       <c r="AT95" s="2"/>
     </row>
-    <row r="96" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" ht="12.75" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -21642,7 +21796,7 @@
       <c r="AS96" s="2"/>
       <c r="AT96" s="2"/>
     </row>
-    <row r="97" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46" ht="12.75" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -21690,7 +21844,7 @@
       <c r="AS97" s="2"/>
       <c r="AT97" s="2"/>
     </row>
-    <row r="98" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" ht="12.75" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -21738,7 +21892,7 @@
       <c r="AS98" s="2"/>
       <c r="AT98" s="2"/>
     </row>
-    <row r="99" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" ht="12.75" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -21786,7 +21940,7 @@
       <c r="AS99" s="2"/>
       <c r="AT99" s="2"/>
     </row>
-    <row r="100" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:46" ht="12.75" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -21834,7 +21988,7 @@
       <c r="AS100" s="2"/>
       <c r="AT100" s="2"/>
     </row>
-    <row r="101" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:46" ht="12.75" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -21882,7 +22036,7 @@
       <c r="AS101" s="2"/>
       <c r="AT101" s="2"/>
     </row>
-    <row r="102" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:46" ht="12.75" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -21930,7 +22084,7 @@
       <c r="AS102" s="2"/>
       <c r="AT102" s="2"/>
     </row>
-    <row r="103" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:46" ht="12.75" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -21978,7 +22132,7 @@
       <c r="AS103" s="2"/>
       <c r="AT103" s="2"/>
     </row>
-    <row r="104" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46" ht="12.75" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -22026,7 +22180,7 @@
       <c r="AS104" s="2"/>
       <c r="AT104" s="2"/>
     </row>
-    <row r="105" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" ht="12.75" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -22074,7 +22228,7 @@
       <c r="AS105" s="2"/>
       <c r="AT105" s="2"/>
     </row>
-    <row r="106" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" ht="12.75" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -22122,7 +22276,7 @@
       <c r="AS106" s="2"/>
       <c r="AT106" s="2"/>
     </row>
-    <row r="107" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:46" ht="12.75" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -22170,7 +22324,7 @@
       <c r="AS107" s="2"/>
       <c r="AT107" s="2"/>
     </row>
-    <row r="108" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:46" ht="12.75" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -22218,7 +22372,7 @@
       <c r="AS108" s="2"/>
       <c r="AT108" s="2"/>
     </row>
-    <row r="109" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:46" ht="12.75" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -22266,7 +22420,7 @@
       <c r="AS109" s="2"/>
       <c r="AT109" s="2"/>
     </row>
-    <row r="110" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:46" ht="12.75" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -22314,7 +22468,7 @@
       <c r="AS110" s="2"/>
       <c r="AT110" s="2"/>
     </row>
-    <row r="111" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:46" ht="12.75" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -22362,7 +22516,7 @@
       <c r="AS111" s="2"/>
       <c r="AT111" s="2"/>
     </row>
-    <row r="112" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:46" ht="12.75" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -22410,7 +22564,7 @@
       <c r="AS112" s="2"/>
       <c r="AT112" s="2"/>
     </row>
-    <row r="113" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:46" ht="12.75" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -22458,7 +22612,7 @@
       <c r="AS113" s="2"/>
       <c r="AT113" s="2"/>
     </row>
-    <row r="114" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:46" ht="12.75" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -22506,7 +22660,7 @@
       <c r="AS114" s="2"/>
       <c r="AT114" s="2"/>
     </row>
-    <row r="115" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:46" ht="12.75" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -22554,7 +22708,7 @@
       <c r="AS115" s="2"/>
       <c r="AT115" s="2"/>
     </row>
-    <row r="116" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46" ht="12.75" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -22602,7 +22756,7 @@
       <c r="AS116" s="2"/>
       <c r="AT116" s="2"/>
     </row>
-    <row r="117" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" ht="12.75" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -22650,7 +22804,7 @@
       <c r="AS117" s="2"/>
       <c r="AT117" s="2"/>
     </row>
-    <row r="118" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46" ht="12.75" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -22698,7 +22852,7 @@
       <c r="AS118" s="2"/>
       <c r="AT118" s="2"/>
     </row>
-    <row r="119" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46" ht="12.75" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -22746,7 +22900,7 @@
       <c r="AS119" s="2"/>
       <c r="AT119" s="2"/>
     </row>
-    <row r="120" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:46" ht="12.75" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -22794,7 +22948,7 @@
       <c r="AS120" s="2"/>
       <c r="AT120" s="2"/>
     </row>
-    <row r="121" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46" ht="12.75" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -22842,7 +22996,7 @@
       <c r="AS121" s="2"/>
       <c r="AT121" s="2"/>
     </row>
-    <row r="122" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:46" ht="12.75" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -22890,7 +23044,7 @@
       <c r="AS122" s="2"/>
       <c r="AT122" s="2"/>
     </row>
-    <row r="123" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:46" ht="12.75" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -22938,7 +23092,7 @@
       <c r="AS123" s="2"/>
       <c r="AT123" s="2"/>
     </row>
-    <row r="124" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:46" ht="12.75" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -22986,7 +23140,7 @@
       <c r="AS124" s="2"/>
       <c r="AT124" s="2"/>
     </row>
-    <row r="125" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:46" ht="12.75" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -23034,7 +23188,7 @@
       <c r="AS125" s="2"/>
       <c r="AT125" s="2"/>
     </row>
-    <row r="126" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:46" ht="12.75" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -23082,7 +23236,7 @@
       <c r="AS126" s="2"/>
       <c r="AT126" s="2"/>
     </row>
-    <row r="127" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:46" ht="12.75" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -23130,7 +23284,7 @@
       <c r="AS127" s="2"/>
       <c r="AT127" s="2"/>
     </row>
-    <row r="128" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:46" ht="12.75" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -23178,7 +23332,7 @@
       <c r="AS128" s="2"/>
       <c r="AT128" s="2"/>
     </row>
-    <row r="129" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:46" ht="12.75" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -23226,7 +23380,7 @@
       <c r="AS129" s="2"/>
       <c r="AT129" s="2"/>
     </row>
-    <row r="130" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:46" ht="12.75" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -23274,7 +23428,7 @@
       <c r="AS130" s="2"/>
       <c r="AT130" s="2"/>
     </row>
-    <row r="131" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:46" ht="12.75" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -23322,7 +23476,7 @@
       <c r="AS131" s="2"/>
       <c r="AT131" s="2"/>
     </row>
-    <row r="132" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:46" ht="12.75" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -23370,7 +23524,7 @@
       <c r="AS132" s="2"/>
       <c r="AT132" s="2"/>
     </row>
-    <row r="133" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:46" ht="12.75" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -23418,7 +23572,7 @@
       <c r="AS133" s="2"/>
       <c r="AT133" s="2"/>
     </row>
-    <row r="134" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:46" ht="12.75" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -23466,7 +23620,7 @@
       <c r="AS134" s="2"/>
       <c r="AT134" s="2"/>
     </row>
-    <row r="135" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:46" ht="12.75" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -23514,7 +23668,7 @@
       <c r="AS135" s="2"/>
       <c r="AT135" s="2"/>
     </row>
-    <row r="136" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:46" ht="12.75" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -23562,7 +23716,7 @@
       <c r="AS136" s="2"/>
       <c r="AT136" s="2"/>
     </row>
-    <row r="137" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:46" ht="12.75" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -23610,7 +23764,7 @@
       <c r="AS137" s="2"/>
       <c r="AT137" s="2"/>
     </row>
-    <row r="138" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:46" ht="12.75" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -23658,7 +23812,7 @@
       <c r="AS138" s="2"/>
       <c r="AT138" s="2"/>
     </row>
-    <row r="139" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:46" ht="12.75" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -23706,7 +23860,7 @@
       <c r="AS139" s="2"/>
       <c r="AT139" s="2"/>
     </row>
-    <row r="140" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:46" ht="12.75" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -23754,7 +23908,7 @@
       <c r="AS140" s="2"/>
       <c r="AT140" s="2"/>
     </row>
-    <row r="141" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:46" ht="12.75" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -23802,7 +23956,7 @@
       <c r="AS141" s="2"/>
       <c r="AT141" s="2"/>
     </row>
-    <row r="142" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:46" ht="12.75" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -23850,7 +24004,7 @@
       <c r="AS142" s="2"/>
       <c r="AT142" s="2"/>
     </row>
-    <row r="143" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:46" ht="12.75" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -23898,7 +24052,7 @@
       <c r="AS143" s="2"/>
       <c r="AT143" s="2"/>
     </row>
-    <row r="144" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:46" ht="12.75" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -23946,7 +24100,7 @@
       <c r="AS144" s="2"/>
       <c r="AT144" s="2"/>
     </row>
-    <row r="145" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:46" ht="12.75" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -23994,7 +24148,7 @@
       <c r="AS145" s="2"/>
       <c r="AT145" s="2"/>
     </row>
-    <row r="146" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:46" ht="12.75" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -24042,7 +24196,7 @@
       <c r="AS146" s="2"/>
       <c r="AT146" s="2"/>
     </row>
-    <row r="147" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:46" ht="12.75" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -24090,7 +24244,7 @@
       <c r="AS147" s="2"/>
       <c r="AT147" s="2"/>
     </row>
-    <row r="148" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:46" ht="12.75" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -24138,7 +24292,7 @@
       <c r="AS148" s="2"/>
       <c r="AT148" s="2"/>
     </row>
-    <row r="149" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:46" ht="12.75" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -24186,7 +24340,7 @@
       <c r="AS149" s="2"/>
       <c r="AT149" s="2"/>
     </row>
-    <row r="150" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:46" ht="12.75" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -24234,7 +24388,7 @@
       <c r="AS150" s="2"/>
       <c r="AT150" s="2"/>
     </row>
-    <row r="151" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:46" ht="12.75" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -24282,7 +24436,7 @@
       <c r="AS151" s="2"/>
       <c r="AT151" s="2"/>
     </row>
-    <row r="152" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:46" ht="12.75" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -24330,7 +24484,7 @@
       <c r="AS152" s="2"/>
       <c r="AT152" s="2"/>
     </row>
-    <row r="153" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:46" ht="12.75" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -24378,7 +24532,7 @@
       <c r="AS153" s="2"/>
       <c r="AT153" s="2"/>
     </row>
-    <row r="154" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:46" ht="12.75" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -24426,7 +24580,7 @@
       <c r="AS154" s="2"/>
       <c r="AT154" s="2"/>
     </row>
-    <row r="155" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:46" ht="12.75" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -24474,7 +24628,7 @@
       <c r="AS155" s="2"/>
       <c r="AT155" s="2"/>
     </row>
-    <row r="156" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:46" ht="12.75" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -24522,7 +24676,7 @@
       <c r="AS156" s="2"/>
       <c r="AT156" s="2"/>
     </row>
-    <row r="157" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:46" ht="12.75" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -24570,7 +24724,7 @@
       <c r="AS157" s="2"/>
       <c r="AT157" s="2"/>
     </row>
-    <row r="158" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:46" ht="12.75" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -24618,7 +24772,7 @@
       <c r="AS158" s="2"/>
       <c r="AT158" s="2"/>
     </row>
-    <row r="159" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:46" ht="12.75" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -24666,7 +24820,7 @@
       <c r="AS159" s="2"/>
       <c r="AT159" s="2"/>
     </row>
-    <row r="160" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:46" ht="12.75" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -24714,7 +24868,7 @@
       <c r="AS160" s="2"/>
       <c r="AT160" s="2"/>
     </row>
-    <row r="161" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:46" ht="12.75" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -24762,7 +24916,7 @@
       <c r="AS161" s="2"/>
       <c r="AT161" s="2"/>
     </row>
-    <row r="162" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:46" ht="12.75" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -24810,7 +24964,7 @@
       <c r="AS162" s="2"/>
       <c r="AT162" s="2"/>
     </row>
-    <row r="163" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:46" ht="12.75" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -24858,7 +25012,7 @@
       <c r="AS163" s="2"/>
       <c r="AT163" s="2"/>
     </row>
-    <row r="164" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:46" ht="12.75" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -24906,7 +25060,7 @@
       <c r="AS164" s="2"/>
       <c r="AT164" s="2"/>
     </row>
-    <row r="165" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:46" ht="12.75" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -24954,7 +25108,7 @@
       <c r="AS165" s="2"/>
       <c r="AT165" s="2"/>
     </row>
-    <row r="166" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:46" ht="12.75" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -25002,7 +25156,7 @@
       <c r="AS166" s="2"/>
       <c r="AT166" s="2"/>
     </row>
-    <row r="167" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:46" ht="12.75" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -25050,7 +25204,7 @@
       <c r="AS167" s="2"/>
       <c r="AT167" s="2"/>
     </row>
-    <row r="168" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:46" ht="12.75" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -25098,7 +25252,7 @@
       <c r="AS168" s="2"/>
       <c r="AT168" s="2"/>
     </row>
-    <row r="169" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:46" ht="12.75" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -25146,7 +25300,7 @@
       <c r="AS169" s="2"/>
       <c r="AT169" s="2"/>
     </row>
-    <row r="170" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:46" ht="12.75" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -25194,7 +25348,7 @@
       <c r="AS170" s="2"/>
       <c r="AT170" s="2"/>
     </row>
-    <row r="171" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:46" ht="12.75" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -25242,7 +25396,7 @@
       <c r="AS171" s="2"/>
       <c r="AT171" s="2"/>
     </row>
-    <row r="172" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:46" ht="12.75" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -25290,7 +25444,7 @@
       <c r="AS172" s="2"/>
       <c r="AT172" s="2"/>
     </row>
-    <row r="173" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:46" ht="12.75" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -25338,7 +25492,7 @@
       <c r="AS173" s="2"/>
       <c r="AT173" s="2"/>
     </row>
-    <row r="174" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:46" ht="12.75" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -25386,7 +25540,7 @@
       <c r="AS174" s="2"/>
       <c r="AT174" s="2"/>
     </row>
-    <row r="175" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:46" ht="12.75" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -25434,7 +25588,7 @@
       <c r="AS175" s="2"/>
       <c r="AT175" s="2"/>
     </row>
-    <row r="176" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:46" ht="12.75" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -25482,7 +25636,7 @@
       <c r="AS176" s="2"/>
       <c r="AT176" s="2"/>
     </row>
-    <row r="177" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:46" ht="12.75" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -25530,7 +25684,7 @@
       <c r="AS177" s="2"/>
       <c r="AT177" s="2"/>
     </row>
-    <row r="178" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:46" ht="12.75" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -25578,7 +25732,7 @@
       <c r="AS178" s="2"/>
       <c r="AT178" s="2"/>
     </row>
-    <row r="179" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:46" ht="12.75" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -25626,7 +25780,7 @@
       <c r="AS179" s="2"/>
       <c r="AT179" s="2"/>
     </row>
-    <row r="180" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:46" ht="12.75" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -25674,7 +25828,7 @@
       <c r="AS180" s="2"/>
       <c r="AT180" s="2"/>
     </row>
-    <row r="181" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:46" ht="12.75" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -25722,7 +25876,7 @@
       <c r="AS181" s="2"/>
       <c r="AT181" s="2"/>
     </row>
-    <row r="182" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:46" ht="12.75" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -25770,7 +25924,7 @@
       <c r="AS182" s="2"/>
       <c r="AT182" s="2"/>
     </row>
-    <row r="183" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:46" ht="12.75" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -25818,7 +25972,7 @@
       <c r="AS183" s="2"/>
       <c r="AT183" s="2"/>
     </row>
-    <row r="184" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:46" ht="12.75" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -25866,7 +26020,7 @@
       <c r="AS184" s="2"/>
       <c r="AT184" s="2"/>
     </row>
-    <row r="185" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:46" ht="12.75" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -25914,7 +26068,7 @@
       <c r="AS185" s="2"/>
       <c r="AT185" s="2"/>
     </row>
-    <row r="186" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:46" ht="12.75" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -25962,7 +26116,7 @@
       <c r="AS186" s="2"/>
       <c r="AT186" s="2"/>
     </row>
-    <row r="187" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:46" ht="12.75" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -26010,7 +26164,7 @@
       <c r="AS187" s="2"/>
       <c r="AT187" s="2"/>
     </row>
-    <row r="188" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:46" ht="12.75" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -26058,7 +26212,7 @@
       <c r="AS188" s="2"/>
       <c r="AT188" s="2"/>
     </row>
-    <row r="189" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:46" ht="12.75" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -26106,7 +26260,7 @@
       <c r="AS189" s="2"/>
       <c r="AT189" s="2"/>
     </row>
-    <row r="190" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:46" ht="12.75" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -26154,7 +26308,7 @@
       <c r="AS190" s="2"/>
       <c r="AT190" s="2"/>
     </row>
-    <row r="191" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:46" ht="12.75" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -26202,7 +26356,7 @@
       <c r="AS191" s="2"/>
       <c r="AT191" s="2"/>
     </row>
-    <row r="192" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:46" ht="12.75" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -26250,7 +26404,7 @@
       <c r="AS192" s="2"/>
       <c r="AT192" s="2"/>
     </row>
-    <row r="193" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:46" ht="12.75" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -26298,7 +26452,7 @@
       <c r="AS193" s="2"/>
       <c r="AT193" s="2"/>
     </row>
-    <row r="194" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:46" ht="12.75" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -26346,7 +26500,7 @@
       <c r="AS194" s="2"/>
       <c r="AT194" s="2"/>
     </row>
-    <row r="195" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:46" ht="12.75" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -26394,7 +26548,7 @@
       <c r="AS195" s="2"/>
       <c r="AT195" s="2"/>
     </row>
-    <row r="196" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:46" ht="12.75" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -26442,7 +26596,7 @@
       <c r="AS196" s="2"/>
       <c r="AT196" s="2"/>
     </row>
-    <row r="197" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:46" ht="12.75" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -26490,7 +26644,7 @@
       <c r="AS197" s="2"/>
       <c r="AT197" s="2"/>
     </row>
-    <row r="198" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:46" ht="12.75" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -26538,7 +26692,7 @@
       <c r="AS198" s="2"/>
       <c r="AT198" s="2"/>
     </row>
-    <row r="199" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:46" ht="12.75" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -26586,7 +26740,7 @@
       <c r="AS199" s="2"/>
       <c r="AT199" s="2"/>
     </row>
-    <row r="200" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:46" ht="12.75" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -26634,7 +26788,7 @@
       <c r="AS200" s="2"/>
       <c r="AT200" s="2"/>
     </row>
-    <row r="201" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:46" ht="12.75" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -26682,7 +26836,7 @@
       <c r="AS201" s="2"/>
       <c r="AT201" s="2"/>
     </row>
-    <row r="202" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:46" ht="12.75" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -26730,7 +26884,7 @@
       <c r="AS202" s="2"/>
       <c r="AT202" s="2"/>
     </row>
-    <row r="203" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:46" ht="12.75" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -26778,7 +26932,7 @@
       <c r="AS203" s="2"/>
       <c r="AT203" s="2"/>
     </row>
-    <row r="204" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:46" ht="12.75" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -26826,7 +26980,7 @@
       <c r="AS204" s="2"/>
       <c r="AT204" s="2"/>
     </row>
-    <row r="205" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:46" ht="12.75" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -26874,7 +27028,7 @@
       <c r="AS205" s="2"/>
       <c r="AT205" s="2"/>
     </row>
-    <row r="206" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:46" ht="12.75" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -26922,7 +27076,7 @@
       <c r="AS206" s="2"/>
       <c r="AT206" s="2"/>
     </row>
-    <row r="207" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:46" ht="12.75" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -26970,7 +27124,7 @@
       <c r="AS207" s="2"/>
       <c r="AT207" s="2"/>
     </row>
-    <row r="208" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:46" ht="12.75" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -27018,7 +27172,7 @@
       <c r="AS208" s="2"/>
       <c r="AT208" s="2"/>
     </row>
-    <row r="209" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:46" ht="12.75" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -27066,7 +27220,7 @@
       <c r="AS209" s="2"/>
       <c r="AT209" s="2"/>
     </row>
-    <row r="210" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:46" ht="12.75" customHeight="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -27114,7 +27268,7 @@
       <c r="AS210" s="2"/>
       <c r="AT210" s="2"/>
     </row>
-    <row r="211" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:46" ht="12.75" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -27162,7 +27316,7 @@
       <c r="AS211" s="2"/>
       <c r="AT211" s="2"/>
     </row>
-    <row r="212" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:46" ht="12.75" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -27210,7 +27364,7 @@
       <c r="AS212" s="2"/>
       <c r="AT212" s="2"/>
     </row>
-    <row r="213" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:46" ht="12.75" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -27258,7 +27412,7 @@
       <c r="AS213" s="2"/>
       <c r="AT213" s="2"/>
     </row>
-    <row r="214" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:46" ht="12.75" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -27306,7 +27460,7 @@
       <c r="AS214" s="2"/>
       <c r="AT214" s="2"/>
     </row>
-    <row r="215" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:46" ht="12.75" customHeight="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -27354,7 +27508,7 @@
       <c r="AS215" s="2"/>
       <c r="AT215" s="2"/>
     </row>
-    <row r="216" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:46" ht="12.75" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -27402,7 +27556,7 @@
       <c r="AS216" s="2"/>
       <c r="AT216" s="2"/>
     </row>
-    <row r="217" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:46" ht="12.75" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -27450,7 +27604,7 @@
       <c r="AS217" s="2"/>
       <c r="AT217" s="2"/>
     </row>
-    <row r="218" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:46" ht="12.75" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -27498,7 +27652,7 @@
       <c r="AS218" s="2"/>
       <c r="AT218" s="2"/>
     </row>
-    <row r="219" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:46" ht="12.75" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -27546,7 +27700,7 @@
       <c r="AS219" s="2"/>
       <c r="AT219" s="2"/>
     </row>
-    <row r="220" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:46" ht="12.75" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -27594,7 +27748,7 @@
       <c r="AS220" s="2"/>
       <c r="AT220" s="2"/>
     </row>
-    <row r="221" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:46" ht="12.75" customHeight="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -27642,7 +27796,7 @@
       <c r="AS221" s="2"/>
       <c r="AT221" s="2"/>
     </row>
-    <row r="222" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:46" ht="12.75" customHeight="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -27690,7 +27844,7 @@
       <c r="AS222" s="2"/>
       <c r="AT222" s="2"/>
     </row>
-    <row r="223" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:46" ht="12.75" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -27738,7 +27892,7 @@
       <c r="AS223" s="2"/>
       <c r="AT223" s="2"/>
     </row>
-    <row r="224" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:46" ht="12.75" customHeight="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -27786,7 +27940,7 @@
       <c r="AS224" s="2"/>
       <c r="AT224" s="2"/>
     </row>
-    <row r="225" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:46" ht="12.75" customHeight="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -27834,7 +27988,7 @@
       <c r="AS225" s="2"/>
       <c r="AT225" s="2"/>
     </row>
-    <row r="226" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:46" ht="12.75" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -27882,7 +28036,7 @@
       <c r="AS226" s="2"/>
       <c r="AT226" s="2"/>
     </row>
-    <row r="227" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:46" ht="12.75" customHeight="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -27930,7 +28084,7 @@
       <c r="AS227" s="2"/>
       <c r="AT227" s="2"/>
     </row>
-    <row r="228" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:46" ht="12.75" customHeight="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -27978,7 +28132,7 @@
       <c r="AS228" s="2"/>
       <c r="AT228" s="2"/>
     </row>
-    <row r="229" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:46" ht="12.75" customHeight="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -28026,7 +28180,7 @@
       <c r="AS229" s="2"/>
       <c r="AT229" s="2"/>
     </row>
-    <row r="230" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:46" ht="12.75" customHeight="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -28074,7 +28228,7 @@
       <c r="AS230" s="2"/>
       <c r="AT230" s="2"/>
     </row>
-    <row r="231" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:46" ht="12.75" customHeight="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -28122,7 +28276,7 @@
       <c r="AS231" s="2"/>
       <c r="AT231" s="2"/>
     </row>
-    <row r="232" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:46" ht="12.75" customHeight="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -28170,7 +28324,7 @@
       <c r="AS232" s="2"/>
       <c r="AT232" s="2"/>
     </row>
-    <row r="233" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:46" ht="12.75" customHeight="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -28218,7 +28372,7 @@
       <c r="AS233" s="2"/>
       <c r="AT233" s="2"/>
     </row>
-    <row r="234" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:46" ht="12.75" customHeight="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -28266,7 +28420,7 @@
       <c r="AS234" s="2"/>
       <c r="AT234" s="2"/>
     </row>
-    <row r="235" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:46" ht="12.75" customHeight="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -28314,7 +28468,7 @@
       <c r="AS235" s="2"/>
       <c r="AT235" s="2"/>
     </row>
-    <row r="236" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:46" ht="12.75" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -28362,7 +28516,7 @@
       <c r="AS236" s="2"/>
       <c r="AT236" s="2"/>
     </row>
-    <row r="237" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:46" ht="12.75" customHeight="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -28410,7 +28564,7 @@
       <c r="AS237" s="2"/>
       <c r="AT237" s="2"/>
     </row>
-    <row r="238" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:46" ht="12.75" customHeight="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -28458,7 +28612,7 @@
       <c r="AS238" s="2"/>
       <c r="AT238" s="2"/>
     </row>
-    <row r="239" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:46" ht="12.75" customHeight="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -28506,7 +28660,7 @@
       <c r="AS239" s="2"/>
       <c r="AT239" s="2"/>
     </row>
-    <row r="240" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:46" ht="12.75" customHeight="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -28554,7 +28708,7 @@
       <c r="AS240" s="2"/>
       <c r="AT240" s="2"/>
     </row>
-    <row r="241" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:46" ht="12.75" customHeight="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -28602,784 +28756,777 @@
       <c r="AS241" s="2"/>
       <c r="AT241" s="2"/>
     </row>
-    <row r="242" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="243" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="244" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="245" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="246" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="247" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="248" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="249" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="250" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="251" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="252" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="253" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="254" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="255" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="256" spans="1:46" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AF15:AM17"/>
-    <mergeCell ref="AN15:AO18"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="AL18:AM18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R18:V18"/>
-    <mergeCell ref="G15:V17"/>
-    <mergeCell ref="W15:AE16"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
@@ -29392,15 +29539,22 @@
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A15:F17"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="G15:V17"/>
+    <mergeCell ref="W15:AE16"/>
+    <mergeCell ref="AF15:AM17"/>
+    <mergeCell ref="AN15:AO18"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="AI18:AK18"/>
+    <mergeCell ref="AL18:AM18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/misc/CMSC 128 Requirements Traceability Matrix for SHUFFLE (Eulin).xlsx
+++ b/misc/CMSC 128 Requirements Traceability Matrix for SHUFFLE (Eulin).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\shuffle\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C3571-5F1D-4056-974F-20239E0BEF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074E5276-3E4D-472E-91A8-B44408CEE925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="352">
   <si>
     <t>Requirements Traceability Matrix (Sample Template)</t>
   </si>
@@ -1272,15 +1272,9 @@
     <t>ts101</t>
   </si>
   <si>
-    <t>As a user, I want to be able to peak through the topmost cards (to up to 7 cards)</t>
-  </si>
-  <si>
     <t>ts102</t>
   </si>
   <si>
-    <t>As a user, I want to be able to reduce the number of peaked cards</t>
-  </si>
-  <si>
     <t>As a user, I want to be able to shift (bring to bottom) the topmost card</t>
   </si>
   <si>
@@ -1876,6 +1870,21 @@
   </si>
   <si>
     <t>https://docs.google.com/spreadsheets/d/1PeDh14bQqVsLShnfbeQ1JbiSmwicG1gsVKFPQP0nRq4/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to peek through the topmost cards (to up to 7 cards)</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to reduce the number of peeked cards</t>
+  </si>
+  <si>
+    <t>As a user, I should be able to create an account</t>
+  </si>
+  <si>
+    <t>ts302</t>
+  </si>
+  <si>
+    <t>As a user, I should be able to log in to my account</t>
   </si>
 </sst>
 </file>
@@ -2422,62 +2431,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2504,12 +2463,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2728,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N15" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2820,10 +2829,10 @@
       <c r="A3" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2848,24 +2857,24 @@
       <c r="A4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -2876,11 +2885,11 @@
       <c r="A5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2904,12 +2913,12 @@
       <c r="A6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2956,13 +2965,13 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -3010,15 +3019,15 @@
         <v>4</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -3062,15 +3071,15 @@
         <v>6</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -3353,57 +3362,57 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="68" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="69" t="s">
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="70" t="s">
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="59"/>
-      <c r="AL15" s="59"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="47" t="s">
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="69"/>
+      <c r="AL15" s="69"/>
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AO15" s="48"/>
+      <c r="AO15" s="60"/>
       <c r="AP15" s="10"/>
       <c r="AQ15" s="10"/>
       <c r="AR15" s="10"/>
@@ -3411,47 +3420,47 @@
       <c r="AT15" s="10"/>
     </row>
     <row r="16" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="60"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="60"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="49"/>
-      <c r="AO16" s="50"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="70"/>
+      <c r="AM16" s="62"/>
+      <c r="AN16" s="61"/>
+      <c r="AO16" s="62"/>
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
@@ -3459,53 +3468,53 @@
       <c r="AT16" s="10"/>
     </row>
     <row r="17" spans="1:46" ht="26.25" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="53" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="56" t="s">
+      <c r="X17" s="48"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="57" t="s">
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="61"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="61"/>
-      <c r="AK17" s="61"/>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="52"/>
-      <c r="AN17" s="49"/>
-      <c r="AO17" s="50"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="71"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="64"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="62"/>
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
@@ -3513,69 +3522,69 @@
       <c r="AT17" s="10"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="63" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="64" t="s">
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="65" t="s">
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="71" t="s">
+      <c r="P18" s="48"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="72" t="s">
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="72" t="s">
+      <c r="X18" s="48"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="72" t="s">
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="66" t="s">
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="55"/>
-      <c r="AI18" s="66" t="s">
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="55"/>
-      <c r="AL18" s="67" t="s">
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="52"/>
+      <c r="AM18" s="64"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="64"/>
       <c r="AP18" s="10"/>
       <c r="AQ18" s="10"/>
       <c r="AR18" s="10"/>
@@ -3732,101 +3741,101 @@
         <v>58</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I20" s="16">
         <v>2</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L20" s="39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M20" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N20" s="39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O20" s="37" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="16" t="s">
         <v>106</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S20" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V20" s="15"/>
       <c r="W20" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X20" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Y20" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z20" s="17" t="s">
         <v>53</v>
       </c>
       <c r="AA20" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB20" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC20" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD20" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE20" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="AC20" s="15" t="s">
+      <c r="AF20" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG20" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="AD20" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE20" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AF20" s="17" t="s">
+      <c r="AH20" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI20" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="AG20" s="30" t="s">
+      <c r="AJ20" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="AH20" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI20" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ20" s="17" t="s">
-        <v>306</v>
-      </c>
       <c r="AK20" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL20" s="17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AM20" s="30" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AN20" s="17" t="s">
         <v>53</v>
@@ -3858,49 +3867,49 @@
         <v>1</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I21" s="20">
         <v>2</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K21" s="39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L21" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="M21" s="39" t="s">
-        <v>220</v>
-      </c>
       <c r="N21" s="39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O21" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q21" s="20" t="s">
         <v>106</v>
       </c>
       <c r="R21" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S21" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="T21" s="20" t="s">
         <v>108</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
@@ -3908,10 +3917,10 @@
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB21" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC21" s="20"/>
       <c r="AD21" s="20"/>
@@ -3920,10 +3929,10 @@
       <c r="AG21" s="20"/>
       <c r="AH21" s="20"/>
       <c r="AI21" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AJ21" s="20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AK21" s="18" t="s">
         <v>106</v>
@@ -3958,49 +3967,49 @@
         <v>1</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I22" s="20">
         <v>2</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L22" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M22" s="39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N22" s="39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="20" t="s">
         <v>106</v>
       </c>
       <c r="R22" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S22" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="T22" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="U22" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
@@ -4008,10 +4017,10 @@
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB22" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC22" s="20"/>
       <c r="AD22" s="20"/>
@@ -4020,10 +4029,10 @@
       <c r="AG22" s="20"/>
       <c r="AH22" s="20"/>
       <c r="AI22" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AJ22" s="20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AK22" s="18" t="s">
         <v>106</v>
@@ -4058,49 +4067,49 @@
         <v>1</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I23" s="20">
         <v>2</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K23" s="39" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L23" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M23" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N23" s="39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O23" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P23" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q23" s="20" t="s">
         <v>106</v>
       </c>
       <c r="R23" s="20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="S23" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="T23" s="20" t="s">
         <v>108</v>
       </c>
       <c r="U23" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V23" s="20"/>
       <c r="W23" s="20"/>
@@ -4108,10 +4117,10 @@
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC23" s="20"/>
       <c r="AD23" s="20"/>
@@ -4120,10 +4129,10 @@
       <c r="AG23" s="20"/>
       <c r="AH23" s="20"/>
       <c r="AI23" s="20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AJ23" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AK23" s="18" t="s">
         <v>106</v>
@@ -4158,49 +4167,49 @@
         <v>1</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I24" s="20">
         <v>2</v>
       </c>
       <c r="J24" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="K24" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="L24" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="M24" s="41" t="s">
-        <v>208</v>
-      </c>
       <c r="N24" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O24" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P24" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q24" s="20" t="s">
         <v>106</v>
       </c>
       <c r="R24" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="S24" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="T24" s="20" t="s">
         <v>108</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V24" s="20"/>
       <c r="W24" s="20"/>
@@ -4208,10 +4217,10 @@
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC24" s="20"/>
       <c r="AD24" s="20"/>
@@ -4220,10 +4229,10 @@
       <c r="AG24" s="20"/>
       <c r="AH24" s="20"/>
       <c r="AI24" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AJ24" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AK24" s="18" t="s">
         <v>106</v>
@@ -4258,43 +4267,43 @@
         <v>1</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I25" s="20">
         <v>2</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K25" s="42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L25" s="42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M25" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N25" s="42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="S25" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="T25" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V25" s="20"/>
       <c r="W25" s="20"/>
@@ -4302,10 +4311,10 @@
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB25" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC25" s="20"/>
       <c r="AD25" s="20"/>
@@ -4314,10 +4323,10 @@
       <c r="AG25" s="20"/>
       <c r="AH25" s="20"/>
       <c r="AI25" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AJ25" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AK25" s="18" t="s">
         <v>106</v>
@@ -4355,40 +4364,40 @@
         <v>146</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I26" s="20">
         <v>2</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K26" s="39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L26" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M26" s="44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N26" s="39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="20"/>
       <c r="R26" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="S26" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="T26" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
@@ -4396,10 +4405,10 @@
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB26" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC26" s="20"/>
       <c r="AD26" s="20"/>
@@ -4408,10 +4417,10 @@
       <c r="AG26" s="20"/>
       <c r="AH26" s="20"/>
       <c r="AI26" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AJ26" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AK26" s="18" t="s">
         <v>106</v>
@@ -4446,43 +4455,43 @@
         <v>1</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I27" s="20">
         <v>2</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K27" s="40" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M27" s="41" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N27" s="40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="S27" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="T27" s="20" t="s">
         <v>108</v>
       </c>
       <c r="U27" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
@@ -4490,10 +4499,10 @@
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB27" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC27" s="20"/>
       <c r="AD27" s="20"/>
@@ -4502,10 +4511,10 @@
       <c r="AG27" s="20"/>
       <c r="AH27" s="20"/>
       <c r="AI27" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AJ27" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AK27" s="18" t="s">
         <v>106</v>
@@ -4525,7 +4534,7 @@
         <v>146</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>147</v>
+        <v>347</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>115</v>
@@ -4540,43 +4549,43 @@
         <v>1</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I28" s="20">
         <v>2</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K28" s="42" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L28" s="42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M28" s="43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N28" s="42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S28" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="T28" s="20" t="s">
         <v>108</v>
       </c>
       <c r="U28" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V28" s="20"/>
       <c r="W28" s="20"/>
@@ -4584,10 +4593,10 @@
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB28" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC28" s="20"/>
       <c r="AD28" s="20"/>
@@ -4596,10 +4605,10 @@
       <c r="AG28" s="20"/>
       <c r="AH28" s="20"/>
       <c r="AI28" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AJ28" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AK28" s="18" t="s">
         <v>106</v>
@@ -4616,10 +4625,10 @@
     </row>
     <row r="29" spans="1:46" ht="19.5" customHeight="1">
       <c r="A29" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>149</v>
+        <v>348</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>115</v>
@@ -4634,43 +4643,43 @@
         <v>1</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I29" s="20">
         <v>2</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K29" s="39" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L29" s="39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M29" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N29" s="39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O29" s="26"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="20"/>
       <c r="R29" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="S29" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="T29" s="20" t="s">
         <v>108</v>
       </c>
       <c r="U29" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
@@ -4678,10 +4687,10 @@
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB29" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC29" s="20"/>
       <c r="AD29" s="20"/>
@@ -4690,10 +4699,10 @@
       <c r="AG29" s="20"/>
       <c r="AH29" s="20"/>
       <c r="AI29" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AJ29" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AK29" s="18" t="s">
         <v>106</v>
@@ -4710,10 +4719,10 @@
     </row>
     <row r="30" spans="1:46" ht="19.5" customHeight="1">
       <c r="A30" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>115</v>
@@ -4728,43 +4737,43 @@
         <v>1</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I30" s="20">
         <v>2</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K30" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L30" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M30" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="N30" s="40" t="s">
         <v>227</v>
-      </c>
-      <c r="M30" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="N30" s="40" t="s">
-        <v>229</v>
       </c>
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="20"/>
       <c r="R30" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="S30" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="T30" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
@@ -4772,10 +4781,10 @@
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB30" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC30" s="20"/>
       <c r="AD30" s="20"/>
@@ -4784,10 +4793,10 @@
       <c r="AG30" s="20"/>
       <c r="AH30" s="20"/>
       <c r="AI30" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AJ30" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AK30" s="18" t="s">
         <v>106</v>
@@ -4804,10 +4813,10 @@
     </row>
     <row r="31" spans="1:46" ht="19.5" customHeight="1">
       <c r="A31" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>115</v>
@@ -4822,43 +4831,43 @@
         <v>1</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I31" s="20">
         <v>2</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K31" s="45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L31" s="45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M31" s="46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N31" s="45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
       <c r="Q31" s="20"/>
       <c r="R31" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="S31" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="T31" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="U31" s="15" t="s">
         <v>344</v>
-      </c>
-      <c r="S31" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="T31" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="U31" s="15" t="s">
-        <v>346</v>
       </c>
       <c r="V31" s="20"/>
       <c r="W31" s="20"/>
@@ -4866,10 +4875,10 @@
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB31" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC31" s="20"/>
       <c r="AD31" s="20"/>
@@ -4878,10 +4887,10 @@
       <c r="AG31" s="20"/>
       <c r="AH31" s="20"/>
       <c r="AI31" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AJ31" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AK31" s="18" t="s">
         <v>106</v>
@@ -4898,10 +4907,10 @@
     </row>
     <row r="32" spans="1:46" ht="19.5" customHeight="1">
       <c r="A32" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>115</v>
@@ -4916,43 +4925,43 @@
         <v>1</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I32" s="20">
         <v>2</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K32" s="45" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L32" s="45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M32" s="46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N32" s="45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
       <c r="R32" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="S32" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="T32" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="S32" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="T32" s="20" t="s">
-        <v>347</v>
-      </c>
       <c r="U32" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
@@ -4960,10 +4969,10 @@
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB32" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC32" s="20"/>
       <c r="AD32" s="20"/>
@@ -4972,10 +4981,10 @@
       <c r="AG32" s="20"/>
       <c r="AH32" s="20"/>
       <c r="AI32" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AJ32" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AK32" s="20"/>
       <c r="AL32" s="20"/>
@@ -4990,10 +4999,10 @@
     </row>
     <row r="33" spans="1:46" ht="19.5" customHeight="1">
       <c r="A33" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>115</v>
@@ -5008,28 +5017,28 @@
         <v>1</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I33" s="20">
         <v>2</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K33" s="45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L33" s="45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M33" s="46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N33" s="45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
@@ -5044,10 +5053,10 @@
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB33" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC33" s="20"/>
       <c r="AD33" s="20"/>
@@ -5070,10 +5079,10 @@
     </row>
     <row r="34" spans="1:46" ht="19.5" customHeight="1">
       <c r="A34" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>115</v>
@@ -5088,28 +5097,28 @@
         <v>1</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I34" s="20">
         <v>2</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K34" s="45" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L34" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="M34" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="N34" s="45" t="s">
         <v>236</v>
-      </c>
-      <c r="M34" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="N34" s="45" t="s">
-        <v>238</v>
       </c>
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
@@ -5124,10 +5133,10 @@
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB34" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC34" s="20"/>
       <c r="AD34" s="20"/>
@@ -5150,46 +5159,38 @@
     </row>
     <row r="35" spans="1:46" ht="19.5" customHeight="1">
       <c r="A35" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="20">
-        <v>1</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>162</v>
-      </c>
       <c r="H35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I35" s="20">
         <v>2</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K35" s="45" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L35" s="45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M35" s="46" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N35" s="45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O35" s="20"/>
       <c r="P35" s="20"/>
@@ -5204,10 +5205,10 @@
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB35" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC35" s="20"/>
       <c r="AD35" s="20"/>
@@ -5230,46 +5231,38 @@
     </row>
     <row r="36" spans="1:46" ht="19.5" customHeight="1">
       <c r="A36" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="20">
-        <v>1</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>165</v>
-      </c>
       <c r="H36" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I36" s="20">
         <v>2</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K36" s="45" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L36" s="45" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M36" s="46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N36" s="45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
@@ -5284,10 +5277,10 @@
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB36" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC36" s="20"/>
       <c r="AD36" s="20"/>
@@ -5310,13 +5303,13 @@
     </row>
     <row r="37" spans="1:46" ht="19.5" customHeight="1">
       <c r="A37" s="20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>130</v>
@@ -5328,28 +5321,28 @@
         <v>1</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I37" s="20">
         <v>2</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K37" s="45" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L37" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M37" s="46" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N37" s="45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O37" s="20"/>
       <c r="P37" s="20"/>
@@ -5364,10 +5357,10 @@
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB37" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC37" s="20"/>
       <c r="AD37" s="20"/>
@@ -5390,13 +5383,13 @@
     </row>
     <row r="38" spans="1:46" ht="19.5" customHeight="1">
       <c r="A38" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>115</v>
+        <v>162</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>130</v>
@@ -5408,28 +5401,28 @@
         <v>1</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I38" s="20">
         <v>2</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K38" s="45" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L38" s="45" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M38" s="46" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N38" s="45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
@@ -5444,10 +5437,10 @@
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB38" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC38" s="20"/>
       <c r="AD38" s="20"/>
@@ -5470,10 +5463,10 @@
     </row>
     <row r="39" spans="1:46" ht="19.5" customHeight="1">
       <c r="A39" s="20" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>115</v>
@@ -5488,28 +5481,28 @@
         <v>1</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I39" s="20">
         <v>2</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K39" s="45" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L39" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="M39" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="N39" s="45" t="s">
         <v>247</v>
-      </c>
-      <c r="M39" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="N39" s="45" t="s">
-        <v>249</v>
       </c>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
@@ -5524,10 +5517,10 @@
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB39" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC39" s="20"/>
       <c r="AD39" s="20"/>
@@ -5549,47 +5542,47 @@
       <c r="AT39" s="2"/>
     </row>
     <row r="40" spans="1:46" ht="19.5" customHeight="1">
-      <c r="A40" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" s="28" t="s">
+      <c r="A40" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="20">
         <v>1</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I40" s="28">
         <v>2</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K40" s="42" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L40" s="42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M40" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N40" s="42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O40" s="28"/>
       <c r="P40" s="28"/>
@@ -5604,10 +5597,10 @@
       <c r="Y40" s="28"/>
       <c r="Z40" s="28"/>
       <c r="AA40" s="28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB40" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
@@ -5629,27 +5622,39 @@
       <c r="AT40" s="2"/>
     </row>
     <row r="41" spans="1:46" ht="19.5" customHeight="1">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
+      <c r="A41" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="20">
+        <v>1</v>
+      </c>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
       <c r="J41" s="33"/>
       <c r="K41" s="39" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L41" s="39" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M41" s="44" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N41" s="39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O41" s="33"/>
       <c r="P41" s="33"/>
@@ -5664,10 +5669,10 @@
       <c r="Y41" s="33"/>
       <c r="Z41" s="33"/>
       <c r="AA41" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB41" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC41" s="33"/>
       <c r="AD41" s="33"/>
@@ -5689,27 +5694,39 @@
       <c r="AT41" s="2"/>
     </row>
     <row r="42" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
+      <c r="A42" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="28">
+        <v>1</v>
+      </c>
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
       <c r="J42" s="33"/>
       <c r="K42" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L42" s="39" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M42" s="39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N42" s="39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O42" s="33"/>
       <c r="P42" s="33"/>
@@ -5724,10 +5741,10 @@
       <c r="Y42" s="33"/>
       <c r="Z42" s="33"/>
       <c r="AA42" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB42" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC42" s="33"/>
       <c r="AD42" s="33"/>
@@ -5749,27 +5766,27 @@
       <c r="AT42" s="2"/>
     </row>
     <row r="43" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="32"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
       <c r="K43" s="39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L43" s="39" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M43" s="39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N43" s="39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O43" s="32"/>
       <c r="P43" s="32"/>
@@ -5784,10 +5801,10 @@
       <c r="Y43" s="32"/>
       <c r="Z43" s="32"/>
       <c r="AA43" s="32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB43" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC43" s="32"/>
       <c r="AD43" s="32"/>
@@ -5809,27 +5826,27 @@
       <c r="AT43" s="2"/>
     </row>
     <row r="44" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="32"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="33"/>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
       <c r="K44" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L44" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="N44" s="39" t="s">
         <v>258</v>
-      </c>
-      <c r="M44" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="N44" s="39" t="s">
-        <v>260</v>
       </c>
       <c r="O44" s="32"/>
       <c r="P44" s="32"/>
@@ -5844,10 +5861,10 @@
       <c r="Y44" s="32"/>
       <c r="Z44" s="32"/>
       <c r="AA44" s="32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB44" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AC44" s="32"/>
       <c r="AD44" s="32"/>
@@ -5970,7 +5987,7 @@
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
       <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
+      <c r="F47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
       <c r="I47" s="34"/>
@@ -6008,6 +6025,12 @@
       <c r="AO47" s="34"/>
     </row>
     <row r="48" spans="1:46" ht="12.75" customHeight="1">
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="32"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -6050,14 +6073,12 @@
       <c r="AT48" s="2"/>
     </row>
     <row r="49" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A49" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -6100,14 +6121,6 @@
       <c r="AT49" s="9"/>
     </row>
     <row r="50" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A50" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -6150,14 +6163,14 @@
       <c r="AT50" s="2"/>
     </row>
     <row r="51" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A51" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="A51" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -6201,7 +6214,7 @@
     </row>
     <row r="52" spans="1:46" ht="12.75" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -6251,12 +6264,12 @@
     </row>
     <row r="53" spans="1:46" ht="12.75" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="4"/>
+      <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -6301,12 +6314,12 @@
     </row>
     <row r="54" spans="1:46" ht="12.75" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -6350,15 +6363,13 @@
       <c r="AT54" s="2"/>
     </row>
     <row r="55" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A55" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22" t="s">
-        <v>70</v>
-      </c>
+      <c r="A55" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -6402,12 +6413,14 @@
       <c r="AT55" s="2"/>
     </row>
     <row r="56" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
+      <c r="A56" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="2"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
       <c r="I56" s="2"/>
@@ -6450,16 +6463,16 @@
       <c r="AT56" s="2"/>
     </row>
     <row r="57" spans="1:46" ht="21" customHeight="1">
-      <c r="A57" s="24" t="s">
-        <v>119</v>
+      <c r="A57" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
-      <c r="E57" s="25">
-        <v>45347</v>
-      </c>
-      <c r="F57" s="22"/>
+      <c r="E57" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
       <c r="I57" s="2"/>
@@ -6502,11 +6515,11 @@
       <c r="AT57" s="2"/>
     </row>
     <row r="58" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
@@ -6550,11 +6563,15 @@
       <c r="AT58" s="2"/>
     </row>
     <row r="59" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="A59" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="25">
+        <v>45347</v>
+      </c>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
@@ -6603,7 +6620,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="F60" s="22"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
       <c r="I60" s="2"/>
@@ -6651,7 +6668,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
       <c r="I61" s="2"/>
@@ -16102,6 +16119,11 @@
       <c r="AT257" s="2"/>
     </row>
     <row r="258" spans="1:46" ht="12.75" customHeight="1">
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
@@ -16145,6 +16167,11 @@
       <c r="AT258" s="2"/>
     </row>
     <row r="259" spans="1:46" ht="12.75" customHeight="1">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
@@ -16188,10 +16215,12 @@
       <c r="AT259" s="2"/>
     </row>
     <row r="260" spans="1:46" ht="15.75" customHeight="1">
+      <c r="F260" s="2"/>
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
     </row>
     <row r="261" spans="1:46" ht="15.75" customHeight="1">
+      <c r="F261" s="2"/>
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
     </row>
@@ -16955,16 +16984,6 @@
     <row r="1019" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B6:E6"/>
     <mergeCell ref="AN15:AO18"/>
     <mergeCell ref="W17:Y17"/>
     <mergeCell ref="Z17:AB17"/>
@@ -16981,6 +17000,16 @@
     <mergeCell ref="AF15:AM17"/>
     <mergeCell ref="R18:V18"/>
     <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -17117,17 +17146,17 @@
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -17617,57 +17646,57 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="68" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="69" t="s">
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="70" t="s">
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="59"/>
-      <c r="AL15" s="59"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="47" t="s">
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="69"/>
+      <c r="AL15" s="69"/>
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="AO15" s="48"/>
+      <c r="AO15" s="60"/>
       <c r="AP15" s="10"/>
       <c r="AQ15" s="10"/>
       <c r="AR15" s="10"/>
@@ -17675,47 +17704,47 @@
       <c r="AT15" s="10"/>
     </row>
     <row r="16" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="60"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="60"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="49"/>
-      <c r="AO16" s="50"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="70"/>
+      <c r="AM16" s="62"/>
+      <c r="AN16" s="61"/>
+      <c r="AO16" s="62"/>
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
@@ -17723,53 +17752,53 @@
       <c r="AT16" s="10"/>
     </row>
     <row r="17" spans="1:46" ht="26.25" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="53" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="56" t="s">
+      <c r="X17" s="48"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="57" t="s">
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="61"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="61"/>
-      <c r="AK17" s="61"/>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="52"/>
-      <c r="AN17" s="49"/>
-      <c r="AO17" s="50"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="71"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="64"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="62"/>
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
@@ -17777,69 +17806,69 @@
       <c r="AT17" s="10"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="63" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="64" t="s">
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="65" t="s">
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="71" t="s">
+      <c r="P18" s="48"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="72" t="s">
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="72" t="s">
+      <c r="X18" s="48"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="72" t="s">
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="66" t="s">
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="55"/>
-      <c r="AI18" s="66" t="s">
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="55"/>
-      <c r="AL18" s="67" t="s">
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="52"/>
+      <c r="AM18" s="64"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="64"/>
       <c r="AP18" s="10"/>
       <c r="AQ18" s="10"/>
       <c r="AR18" s="10"/>
@@ -18065,55 +18094,55 @@
       <c r="AT20" s="19"/>
     </row>
     <row r="21" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="85">
+      <c r="E21" s="86">
         <v>44650</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F21" s="81">
         <v>1</v>
       </c>
-      <c r="G21" s="82" t="s">
+      <c r="G21" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="82" t="s">
+      <c r="H21" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="82" t="s">
+      <c r="I21" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="82">
+      <c r="J21" s="81">
         <v>1</v>
       </c>
-      <c r="K21" s="86" t="s">
+      <c r="K21" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="82" t="s">
+      <c r="L21" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M21" s="82" t="s">
+      <c r="M21" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="N21" s="82" t="s">
+      <c r="N21" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="O21" s="82" t="s">
+      <c r="O21" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="P21" s="82" t="s">
+      <c r="P21" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="Q21" s="82" t="s">
+      <c r="Q21" s="81" t="s">
         <v>106</v>
       </c>
       <c r="R21" s="20" t="s">
@@ -18159,23 +18188,23 @@
       <c r="AT21" s="2"/>
     </row>
     <row r="22" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A22" s="84"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
       <c r="R22" s="20" t="s">
         <v>113</v>
       </c>
@@ -18209,12 +18238,12 @@
       <c r="AT22" s="2"/>
     </row>
     <row r="23" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A23" s="84"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="20" t="s">
         <v>114</v>
       </c>
@@ -18265,12 +18294,12 @@
       <c r="AT23" s="2"/>
     </row>
     <row r="24" spans="1:46" ht="12.75" customHeight="1">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
       <c r="G24" s="20" t="s">
         <v>117</v>
       </c>
@@ -29518,15 +29547,22 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="AF15:AM17"/>
+    <mergeCell ref="AN15:AO18"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="AI18:AK18"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="G15:V17"/>
+    <mergeCell ref="W15:AE16"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
@@ -29539,22 +29575,15 @@
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A15:F17"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R18:V18"/>
-    <mergeCell ref="G15:V17"/>
-    <mergeCell ref="W15:AE16"/>
-    <mergeCell ref="AF15:AM17"/>
-    <mergeCell ref="AN15:AO18"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
